--- a/BHL_data.xlsx
+++ b/BHL_data.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiyeow.IASTATE\Pictures\jy_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattl\Pictures\jy_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C11762-E55D-4689-B801-10DF5B5EB4ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99A69F6-9106-4EBE-8F40-BE8078C9DD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_by_sub" sheetId="4" r:id="rId1"/>
     <sheet name="Data_by_site" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data_by_sub!$A$1:$N$241</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1740,7 +1753,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="17">
   <si>
     <t>Flow (cms)</t>
   </si>
@@ -1788,6 +1801,9 @@
   </si>
   <si>
     <t>T12</t>
+  </si>
+  <si>
+    <t>Duration (day)</t>
   </si>
 </sst>
 </file>
@@ -2318,7 +2334,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2381,6 +2397,8 @@
     <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2702,7018 +2720,7570 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M241"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F197" sqref="F197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="16.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="4">
         <v>42083</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>0.02</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G2" s="11">
+      <c r="H2" s="11">
         <v>1.6923076923078475</v>
       </c>
-      <c r="H2" s="20">
+      <c r="I2" s="20">
         <v>50.979199999999999</v>
       </c>
-      <c r="I2" s="20">
+      <c r="J2" s="20">
         <v>41.6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>42090</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>0.02</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="G3" s="11">
+      <c r="H3" s="11">
         <v>0.5</v>
       </c>
-      <c r="H3" s="20">
+      <c r="I3" s="20">
         <v>48.783700000000003</v>
       </c>
-      <c r="I3" s="20">
+      <c r="J3" s="20">
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <v>42097</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5">
         <v>2.4E-2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G4" s="11">
+      <c r="H4" s="11">
         <v>1.2315270935964704</v>
       </c>
-      <c r="H4" s="20">
+      <c r="I4" s="20">
         <v>45.421100000000003</v>
       </c>
-      <c r="I4" s="20">
+      <c r="J4" s="20">
         <v>42.8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>42105</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G5" s="11">
+      <c r="H5" s="11">
         <v>7.5403949730699837</v>
       </c>
-      <c r="H5" s="20">
+      <c r="I5" s="20">
         <v>46.576900000000002</v>
       </c>
-      <c r="I5" s="20">
+      <c r="J5" s="20">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="4">
         <v>42111</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>1.6E-2</v>
       </c>
-      <c r="G6" s="11">
+      <c r="H6" s="11">
         <v>1.6917293233076669</v>
       </c>
-      <c r="H6" s="20">
+      <c r="I6" s="20">
         <v>48.271799999999999</v>
       </c>
-      <c r="I6" s="20">
+      <c r="J6" s="20">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="4">
         <v>42116</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G7" s="11">
+      <c r="H7" s="11">
         <v>0.5</v>
       </c>
-      <c r="H7" s="20">
+      <c r="I7" s="20">
         <v>45.674799999999998</v>
       </c>
-      <c r="I7" s="20">
+      <c r="J7" s="20">
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="4">
         <v>42119</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G8" s="11">
+      <c r="H8" s="11">
         <v>1.2195121951218169</v>
       </c>
-      <c r="H8" s="20">
+      <c r="I8" s="20">
         <v>44.704300000000003</v>
       </c>
-      <c r="I8" s="20">
+      <c r="J8" s="20">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="4">
         <v>42125</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5">
         <v>1.2966666666666666E-2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G9" s="11">
+      <c r="H9" s="11">
         <v>6.195158415272056</v>
       </c>
-      <c r="H9" s="20">
+      <c r="I9" s="20">
         <v>46.440800000000003</v>
       </c>
-      <c r="I9" s="20">
+      <c r="J9" s="20">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4">
         <v>42133</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5">
         <v>1.50625E-2</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G10" s="11">
+      <c r="H10" s="11">
         <v>12.598236068179741</v>
       </c>
-      <c r="H10" s="20">
+      <c r="I10" s="20">
         <v>45.126899999999999</v>
       </c>
-      <c r="I10" s="20">
+      <c r="J10" s="20">
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4">
         <v>42136</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5">
         <v>1.842254428341385E-2</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="G11" s="11">
+      <c r="H11" s="11">
         <v>1.3513513513506024</v>
       </c>
-      <c r="H11" s="20">
+      <c r="I11" s="20">
         <v>45.1464</v>
       </c>
-      <c r="I11" s="20">
+      <c r="J11" s="20">
         <v>41.4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="4">
         <v>42143</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5">
         <v>2.5499999999999998E-2</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G12" s="11">
+      <c r="H12" s="11">
         <v>27.808576336302249</v>
       </c>
-      <c r="H12" s="20">
+      <c r="I12" s="20">
         <v>46.277799999999999</v>
       </c>
-      <c r="I12" s="20">
+      <c r="J12" s="20">
         <v>39.6</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4">
         <v>42150</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5">
         <v>1.5139999999999999E-2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>0.01</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="G13" s="11">
+      <c r="H13" s="11">
         <v>20.782971962309592</v>
       </c>
-      <c r="H13" s="20">
+      <c r="I13" s="20">
         <v>47.181199999999997</v>
       </c>
-      <c r="I13" s="20">
+      <c r="J13" s="20">
         <v>49.8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="4">
         <v>42157</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="5">
         <v>1.5323809523809523E-2</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G14" s="11">
+      <c r="H14" s="11">
         <v>12.102303682552032</v>
       </c>
-      <c r="H14" s="20">
+      <c r="I14" s="20">
         <v>42.431399999999996</v>
       </c>
-      <c r="I14" s="20">
+      <c r="J14" s="20">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4">
         <v>42164</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5">
         <v>1.8182539682539682E-2</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G15" s="11">
+      <c r="H15" s="11">
         <v>52.540287577215949</v>
       </c>
-      <c r="H15" s="20">
+      <c r="I15" s="20">
         <v>45.894500000000001</v>
       </c>
-      <c r="I15" s="20">
+      <c r="J15" s="20">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="4">
         <v>42171</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5">
         <v>1.4375238095238097E-2</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5">
         <v>0.47499999999999998</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>0.65400000000000003</v>
       </c>
-      <c r="G16" s="11">
+      <c r="H16" s="11">
         <v>748.99999999999955</v>
       </c>
-      <c r="H16" s="20">
+      <c r="I16" s="20">
         <v>42.285699999999999</v>
       </c>
-      <c r="I16" s="20">
+      <c r="J16" s="20">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="4">
         <v>42177</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5">
         <v>4.7934523809523809E-2</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="5">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G17" s="11">
+      <c r="H17" s="11">
         <v>12.999999999999309</v>
       </c>
-      <c r="H17" s="20">
+      <c r="I17" s="20">
         <v>47.126800000000003</v>
       </c>
-      <c r="I17" s="20">
+      <c r="J17" s="20">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>42185</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5">
         <v>0.20171145685997172</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>3.1E-2</v>
       </c>
-      <c r="G18" s="11">
+      <c r="H18" s="11">
         <v>37.222949999999997</v>
       </c>
-      <c r="H18" s="20">
+      <c r="I18" s="20">
         <v>23.3276</v>
       </c>
-      <c r="I18" s="20">
+      <c r="J18" s="20">
         <v>29.4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="4">
         <v>42192</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="5">
         <v>2.7000000000000003E-2</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>6.3E-2</v>
       </c>
-      <c r="G19" s="11">
+      <c r="H19" s="11">
         <v>60.373350000000002</v>
       </c>
-      <c r="H19" s="20">
+      <c r="I19" s="20">
         <v>22.0045</v>
       </c>
-      <c r="I19" s="20">
+      <c r="J19" s="20">
         <v>21.8</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="4">
         <v>42199</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F20" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <v>0.104</v>
       </c>
-      <c r="G20" s="11">
+      <c r="H20" s="11">
         <v>90.03479999999999</v>
       </c>
-      <c r="H20" s="20">
+      <c r="I20" s="20">
         <v>24.350999999999999</v>
       </c>
-      <c r="I20" s="20">
+      <c r="J20" s="20">
         <v>28.6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="4">
         <v>42206</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="5">
         <v>5.5894444444444448E-2</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F21" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="5">
         <v>0.55600000000000005</v>
       </c>
-      <c r="G21" s="11">
+      <c r="H21" s="11">
         <v>668.00000000000057</v>
       </c>
-      <c r="H21" s="20">
+      <c r="I21" s="20">
         <v>27.974399999999999</v>
       </c>
-      <c r="I21" s="20">
+      <c r="J21" s="20">
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="4">
         <v>42213</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="5">
         <v>2.5652199617457832E-2</v>
       </c>
-      <c r="E22" s="5">
+      <c r="F22" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G22" s="11">
+      <c r="H22" s="11">
         <v>20.666666666665872</v>
       </c>
-      <c r="H22" s="20">
+      <c r="I22" s="20">
         <v>33.421100000000003</v>
       </c>
-      <c r="I22" s="20">
+      <c r="J22" s="20">
         <v>36.6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="4">
         <v>42220</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="D23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="5">
         <v>2.5000000000000005E-2</v>
       </c>
-      <c r="E23" s="5">
+      <c r="F23" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="5">
         <v>0.127</v>
       </c>
-      <c r="G23" s="11">
+      <c r="H23" s="11">
         <v>110.99999999999888</v>
       </c>
-      <c r="H23" s="20">
+      <c r="I23" s="20">
         <v>32.496899999999997</v>
       </c>
-      <c r="I23" s="20">
+      <c r="J23" s="20">
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="4">
         <v>42227</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="D24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="5">
         <v>2.6666666666666666E-3</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F24" s="5">
         <v>2E-3</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G24" s="5">
         <v>1.419</v>
       </c>
-      <c r="G24" s="11">
+      <c r="H24" s="11">
         <v>852.00000000000387</v>
       </c>
-      <c r="H24" s="20">
+      <c r="I24" s="20">
         <v>16.7912</v>
       </c>
-      <c r="I24" s="20">
+      <c r="J24" s="20">
         <v>20.2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="4">
         <v>42248</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="D25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="5">
         <v>7.0648148148148154E-2</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F25" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F25" s="5">
+      <c r="G25" s="5">
         <v>0.02</v>
       </c>
-      <c r="G25" s="11">
+      <c r="H25" s="11">
         <v>19.000000000000128</v>
       </c>
-      <c r="H25" s="20">
+      <c r="I25" s="20">
         <v>35.554400000000001</v>
       </c>
-      <c r="I25" s="20">
+      <c r="J25" s="20">
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="4">
         <v>42248</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5">
         <v>7.0648148148148154E-2</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="5">
         <v>0.02</v>
       </c>
-      <c r="G26" s="11">
+      <c r="H26" s="11">
         <v>19.000000000000128</v>
       </c>
-      <c r="H26" s="20">
+      <c r="I26" s="20">
         <v>35.554400000000001</v>
       </c>
-      <c r="I26" s="20">
+      <c r="J26" s="20">
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="4">
         <v>42255</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="5">
         <v>4.1929629628034648E-2</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G27" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G27" s="11">
+      <c r="H27" s="11">
         <v>8.6666666666671937</v>
       </c>
-      <c r="H27" s="20">
+      <c r="I27" s="20">
         <v>30.5809</v>
       </c>
-      <c r="I27" s="20">
+      <c r="J27" s="20">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="4">
         <v>42262</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="D28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="5">
         <v>3.6418750004422761E-2</v>
       </c>
-      <c r="E28" s="5">
+      <c r="F28" s="5">
         <v>2E-3</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G28" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G28" s="11">
+      <c r="H28" s="11">
         <v>4.6666666666661527</v>
       </c>
-      <c r="H28" s="20">
+      <c r="I28" s="20">
         <v>34.133899999999997</v>
       </c>
-      <c r="I28" s="20">
+      <c r="J28" s="20">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="4">
         <v>42276</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="D29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="5">
         <v>4.5575246291863006E-2</v>
       </c>
-      <c r="E29" s="5">
+      <c r="F29" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F29" s="5">
+      <c r="G29" s="5">
         <v>7.8E-2</v>
       </c>
-      <c r="G29" s="11">
+      <c r="H29" s="11">
         <v>106.33333333333421</v>
       </c>
-      <c r="H29" s="20">
+      <c r="I29" s="20">
         <v>34.707000000000001</v>
       </c>
-      <c r="I29" s="20">
+      <c r="J29" s="20">
         <v>40.200000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="4">
         <v>42283</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="5">
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="5">
         <v>3.5620105818079825E-2</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F30" s="5">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F30" s="5">
+      <c r="G30" s="5">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G30" s="11">
+      <c r="H30" s="11">
         <v>19.999999999999279</v>
       </c>
-      <c r="H30" s="20">
+      <c r="I30" s="20">
         <v>37.396299999999997</v>
       </c>
-      <c r="I30" s="20">
+      <c r="J30" s="20">
         <v>42.4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="4">
         <v>42297</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="5">
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="5">
         <v>3.9857894737830725E-2</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F31" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F31" s="5">
+      <c r="G31" s="5">
         <v>0.2</v>
       </c>
-      <c r="G31" s="11">
+      <c r="H31" s="11">
         <v>166.00000000000037</v>
       </c>
-      <c r="H31" s="20">
+      <c r="I31" s="20">
         <v>40.144300000000001</v>
       </c>
-      <c r="I31" s="20">
+      <c r="J31" s="20">
         <v>43.6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="4">
         <v>42327</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="5">
         <v>7.3819658120470658E-2</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F32" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F32" s="5">
+      <c r="G32" s="5">
         <v>1.5E-3</v>
       </c>
-      <c r="G32" s="11">
+      <c r="H32" s="11">
         <v>165.33333333333289</v>
       </c>
-      <c r="H32" s="20">
+      <c r="I32" s="20">
         <v>39.693399999999997</v>
       </c>
-      <c r="I32" s="20">
+      <c r="J32" s="20">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="4">
         <v>42460</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="C33" s="11">
+        <v>11.536805555551837</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="5">
         <v>2.5511111111806498E-2</v>
       </c>
-      <c r="E33" s="5">
+      <c r="F33" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F33" s="5">
+      <c r="G33" s="5">
         <v>0.29299999999999998</v>
       </c>
-      <c r="G33" s="11">
+      <c r="H33" s="11">
         <v>18.666666666664611</v>
       </c>
-      <c r="H33" s="20">
+      <c r="I33" s="20">
         <v>35.3001</v>
       </c>
-      <c r="I33" s="20">
+      <c r="J33" s="20">
         <v>34.256</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="4">
         <v>42474</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="C34" s="11">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="5">
         <v>4.1794308948336995E-2</v>
       </c>
-      <c r="E34" s="5">
+      <c r="F34" s="5">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F34" s="5">
+      <c r="G34" s="5">
         <v>0.04</v>
       </c>
-      <c r="G34" s="11">
+      <c r="H34" s="11">
         <v>2.0000000000012603</v>
-      </c>
-      <c r="H34" s="20">
-        <v>31.765599999999999</v>
       </c>
       <c r="I34" s="20">
         <v>31.765599999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="20">
+        <v>31.765599999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="4">
         <v>42488</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C35" s="11">
+        <v>5.7020833333372138</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="5">
         <v>7.8277777775327365E-2</v>
       </c>
-      <c r="E35" s="5">
+      <c r="F35" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F35" s="5">
+      <c r="G35" s="5">
         <v>0.129</v>
       </c>
-      <c r="G35" s="11">
+      <c r="H35" s="11">
         <v>39.333333333333442</v>
       </c>
-      <c r="H35" s="20">
+      <c r="I35" s="20">
         <v>30.518799999999999</v>
       </c>
-      <c r="I35" s="20">
+      <c r="J35" s="20">
         <v>30.361000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="4">
         <v>42507</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="C36" s="11">
+        <v>5.5972222222262644</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="5">
         <v>6.4980160857237707E-2</v>
       </c>
-      <c r="E36" s="5">
+      <c r="F36" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F36" s="5">
+      <c r="G36" s="5">
         <v>0.17699999999999999</v>
       </c>
-      <c r="G36" s="11">
+      <c r="H36" s="11">
         <v>63.333333333333762</v>
       </c>
-      <c r="H36" s="20">
+      <c r="I36" s="20">
         <v>22.9285</v>
       </c>
-      <c r="I36" s="20">
+      <c r="J36" s="20">
         <v>23.268000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="4">
         <v>42507</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="C37" s="11">
+        <v>0.19861111111094942</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="5">
         <v>6.4980160857237707E-2</v>
       </c>
-      <c r="E37" s="5">
+      <c r="F37" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F37" s="5">
+      <c r="G37" s="5">
         <v>0.17699999999999999</v>
       </c>
-      <c r="G37" s="11">
+      <c r="H37" s="11">
         <v>63.333333333333762</v>
       </c>
-      <c r="H37" s="20">
+      <c r="I37" s="20">
         <v>22.9285</v>
       </c>
-      <c r="I37" s="20">
+      <c r="J37" s="20">
         <v>23.268000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="4">
         <v>42521</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="C38" s="11">
+        <v>14.702083333337214</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="5">
         <v>5.2347293449394046E-2</v>
       </c>
-      <c r="E38" s="5">
+      <c r="F38" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F38" s="5">
+      <c r="G38" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G38" s="11">
+      <c r="H38" s="11">
         <v>1.6666666666672234</v>
       </c>
-      <c r="H38" s="20">
+      <c r="I38" s="20">
         <v>15.634499999999999</v>
       </c>
-      <c r="I38" s="20">
+      <c r="J38" s="20">
         <v>14.282</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="4">
         <v>42533</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="5">
+      <c r="C39" s="11">
+        <v>10.772222222221899</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="5">
         <v>2.5640740737407297E-2</v>
       </c>
-      <c r="E39" s="5">
+      <c r="F39" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F39" s="5">
+      <c r="G39" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G39" s="11">
+      <c r="H39" s="11">
         <v>3.9999999999995595</v>
       </c>
-      <c r="H39" s="20">
+      <c r="I39" s="20">
         <v>18.044699999999999</v>
       </c>
-      <c r="I39" s="20">
+      <c r="J39" s="20">
         <v>17.919</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="4">
         <v>42549</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="5">
+      <c r="C40" s="11">
+        <v>12.927777777775191</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="5">
         <v>1.641055555450999E-2</v>
       </c>
-      <c r="E40" s="5">
+      <c r="F40" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F40" s="5">
+      <c r="G40" s="5">
         <v>1.5E-3</v>
       </c>
-      <c r="G40" s="11">
+      <c r="H40" s="11">
         <v>3.0000000000004099</v>
       </c>
-      <c r="H40" s="20">
+      <c r="I40" s="20">
         <v>28.116499999999998</v>
       </c>
-      <c r="I40" s="20">
+      <c r="J40" s="20">
         <v>26.411999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B41" s="4">
         <v>42559</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="C41" s="11">
+        <v>3.1513888888875954</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="5">
         <v>1.3694444444759028E-2</v>
       </c>
-      <c r="E41" s="5">
+      <c r="F41" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F41" s="5">
+      <c r="G41" s="5">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G41" s="11">
+      <c r="H41" s="11">
         <v>13.499999999999623</v>
       </c>
-      <c r="H41" s="20">
+      <c r="I41" s="20">
         <v>27.944299999999998</v>
       </c>
-      <c r="I41" s="20">
+      <c r="J41" s="20">
         <v>27.6</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B42" s="4">
         <v>42577</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="5">
+      <c r="C42" s="11">
+        <v>18</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="5">
         <v>2.8033632000000002E-3</v>
       </c>
-      <c r="E42" s="5">
+      <c r="F42" s="5">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="F42" s="5">
+      <c r="G42" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G42" s="11">
+      <c r="H42" s="11">
         <v>8.6666666666657122</v>
       </c>
-      <c r="H42" s="20">
+      <c r="I42" s="20">
         <v>25.2773</v>
       </c>
-      <c r="I42" s="20">
+      <c r="J42" s="20">
         <v>23.692</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B43" s="4">
         <v>42591</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="5">
+      <c r="C43" s="11">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="5">
         <v>7.9048375891606728E-4</v>
       </c>
-      <c r="E43" s="5">
+      <c r="F43" s="5">
         <v>1.6E-2</v>
       </c>
-      <c r="F43" s="5">
+      <c r="G43" s="5">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G43" s="11">
+      <c r="H43" s="11">
         <v>78.000000000001776</v>
       </c>
-      <c r="H43" s="20">
+      <c r="I43" s="20">
         <v>23.077100000000002</v>
       </c>
-      <c r="I43" s="20">
+      <c r="J43" s="20">
         <v>23.155000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="4">
         <v>42608</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="5">
+      <c r="C44" s="11">
+        <v>10.364583333335759</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="5">
         <v>1.1921212120632635E-2</v>
       </c>
-      <c r="E44" s="5">
+      <c r="F44" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F44" s="5">
+      <c r="G44" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G44" s="11">
+      <c r="H44" s="11">
         <v>24.00000000000032</v>
       </c>
-      <c r="H44" s="20">
+      <c r="I44" s="20">
         <v>18.023099999999999</v>
       </c>
-      <c r="I44" s="20">
+      <c r="J44" s="20">
         <v>16.864000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B45" s="4">
         <v>42650</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="5">
+      <c r="C45" s="11">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="5">
         <v>1.8060000000938773E-2</v>
       </c>
-      <c r="E45" s="5">
+      <c r="F45" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F45" s="5">
+      <c r="G45" s="5">
         <v>3.1E-2</v>
       </c>
-      <c r="G45" s="11">
+      <c r="H45" s="11">
         <v>1.3333333333346669</v>
       </c>
-      <c r="H45" s="20">
+      <c r="I45" s="20">
         <v>21.255500000000001</v>
       </c>
-      <c r="I45" s="20">
+      <c r="J45" s="20">
         <v>22.734000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="4">
         <v>42665</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="5">
+      <c r="C46" s="11">
+        <v>8.0034722222262644</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="5">
         <v>2.2452087910873223E-2</v>
       </c>
-      <c r="E46" s="5">
+      <c r="F46" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F46" s="5">
+      <c r="G46" s="5">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="G46" s="11">
+      <c r="H46" s="11">
         <v>27.500000000000302</v>
       </c>
-      <c r="H46" s="20">
+      <c r="I46" s="20">
         <v>22.342099999999999</v>
       </c>
-      <c r="I46" s="20">
+      <c r="J46" s="20">
         <v>22.053000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B47" s="4">
         <v>42678</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="5">
+      <c r="C47" s="11">
+        <v>14.457638888889051</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="5">
         <v>1.9240000000000004E-2</v>
       </c>
-      <c r="E47" s="5">
+      <c r="F47" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F47" s="5">
+      <c r="G47" s="5">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G47" s="11">
+      <c r="H47" s="11">
         <v>12.333333333334195</v>
       </c>
-      <c r="H47" s="20">
+      <c r="I47" s="20">
         <v>24.0261</v>
       </c>
-      <c r="I47" s="20">
+      <c r="J47" s="20">
         <v>23.536999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="4">
         <v>42692</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="5">
+      <c r="C48" s="11">
+        <v>6.4937500000014552</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="5">
         <v>1.4605000000350176E-2</v>
       </c>
-      <c r="E48" s="5">
+      <c r="F48" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F48" s="5">
+      <c r="G48" s="5">
         <v>0.115</v>
       </c>
-      <c r="G48" s="11">
+      <c r="H48" s="11">
         <v>16.666666666666313</v>
       </c>
-      <c r="H48" s="20">
+      <c r="I48" s="20">
         <v>23.235399999999998</v>
       </c>
-      <c r="I48" s="20">
+      <c r="J48" s="20">
         <v>25.251000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B49" s="4">
         <v>42817</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="5">
+      <c r="C49" s="11">
+        <v>12.970833333332848</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="5">
         <v>2.4937941998821475E-2</v>
       </c>
-      <c r="E49" s="5">
+      <c r="F49" s="5">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F49" s="5">
+      <c r="G49" s="5">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="G49" s="11">
+      <c r="H49" s="11">
         <v>2.9999999999989297</v>
       </c>
-      <c r="H49" s="20">
+      <c r="I49" s="20">
         <v>25.1663</v>
       </c>
-      <c r="I49" s="20">
+      <c r="J49" s="20">
         <v>35.884999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="4">
         <v>42831</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="5">
+      <c r="C50" s="11">
+        <v>13</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="5">
         <v>4.2205918908387575E-2</v>
       </c>
-      <c r="E50" s="5">
+      <c r="F50" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F50" s="5">
+      <c r="G50" s="5">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G50" s="11">
+      <c r="H50" s="11">
         <v>10.666666666666973</v>
       </c>
-      <c r="H50" s="20">
+      <c r="I50" s="20">
         <v>27.2654</v>
       </c>
-      <c r="I50" s="20">
+      <c r="J50" s="20">
         <v>37.526000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="4">
         <v>42845</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="5">
+      <c r="C51" s="11">
+        <v>2.5729166666715173</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="5">
         <v>7.3711111109013905E-2</v>
       </c>
-      <c r="E51" s="5">
+      <c r="F51" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F51" s="5">
+      <c r="G51" s="5">
         <v>0.02</v>
       </c>
-      <c r="G51" s="11">
+      <c r="H51" s="11">
         <v>13.000000000000789</v>
       </c>
-      <c r="H51" s="20">
+      <c r="I51" s="20">
         <v>23.418299999999999</v>
       </c>
-      <c r="I51" s="20">
+      <c r="J51" s="20">
         <v>30.376999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="4">
         <v>42859</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="5">
+      <c r="C52" s="11">
+        <v>9.4868055555562023</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="5">
         <v>7.8992222223693301E-2</v>
       </c>
-      <c r="E52" s="5">
+      <c r="F52" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F52" s="5">
+      <c r="G52" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="G52" s="11">
+      <c r="H52" s="11">
         <v>11.333333333333567</v>
       </c>
-      <c r="H52" s="20">
+      <c r="I52" s="20">
         <v>22.851800000000001</v>
       </c>
-      <c r="I52" s="20">
+      <c r="J52" s="20">
         <v>33.712000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="4">
         <v>42872</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="5">
+      <c r="C53" s="11">
+        <v>12.400694444448163</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="5">
         <v>7.4925793651397982E-2</v>
       </c>
-      <c r="E53" s="5">
+      <c r="F53" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F53" s="5">
+      <c r="G53" s="5">
         <v>0.04</v>
       </c>
-      <c r="G53" s="11">
+      <c r="H53" s="11">
         <v>22.00000000000054</v>
       </c>
-      <c r="H53" s="20">
+      <c r="I53" s="20">
         <v>23.713999999999999</v>
       </c>
-      <c r="I53" s="20">
+      <c r="J53" s="20">
         <v>36.805999999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B54" s="4">
         <v>42886</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="5">
+      <c r="C54" s="11">
+        <v>1.5402777777781012</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="5">
         <v>9.5245396821567463E-2</v>
       </c>
-      <c r="E54" s="5">
+      <c r="F54" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="F54" s="5">
+      <c r="G54" s="5">
         <v>0.58699999999999997</v>
       </c>
-      <c r="G54" s="11">
+      <c r="H54" s="11">
         <v>808.9999999999975</v>
       </c>
-      <c r="H54" s="20">
+      <c r="I54" s="20">
         <v>21.893599999999999</v>
       </c>
-      <c r="I54" s="20">
+      <c r="J54" s="20">
         <v>36.796999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="4">
         <v>42886</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="5">
+      <c r="C55" s="11">
+        <v>8.288888888891961</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="5">
         <v>9.5245396821567463E-2</v>
       </c>
-      <c r="E55" s="5">
+      <c r="F55" s="5">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F55" s="5">
+      <c r="G55" s="5">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="G55" s="11">
+      <c r="H55" s="11">
         <v>49.333333333333826</v>
       </c>
-      <c r="H55" s="20">
+      <c r="I55" s="20">
         <v>28.946999999999999</v>
       </c>
-      <c r="I55" s="20">
+      <c r="J55" s="20">
         <v>31.646000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B56" s="4">
         <v>42900</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="5">
+      <c r="C56" s="11">
+        <v>7.7319444444437977</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="5">
         <v>4.7855555555100238E-2</v>
       </c>
-      <c r="E56" s="5">
+      <c r="F56" s="5">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F56" s="5">
+      <c r="G56" s="5">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="G56" s="11">
+      <c r="H56" s="11">
         <v>49.333333333333826</v>
       </c>
-      <c r="H56" s="20">
+      <c r="I56" s="20">
         <v>28.946999999999999</v>
       </c>
-      <c r="I56" s="20">
+      <c r="J56" s="20">
         <v>31.646000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B57" s="4">
         <v>42900</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="5">
+      <c r="C57" s="11">
+        <v>5.5618055555532919</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="5">
         <v>4.4409181096440077E-2</v>
       </c>
-      <c r="E57" s="5">
+      <c r="F57" s="5">
         <v>1.6E-2</v>
       </c>
-      <c r="F57" s="5">
+      <c r="G57" s="5">
         <v>2.7E-2</v>
       </c>
-      <c r="G57" s="11">
+      <c r="H57" s="11">
         <v>2.9999999999989297</v>
       </c>
-      <c r="H57" s="20">
+      <c r="I57" s="20">
         <v>28.415099999999999</v>
       </c>
-      <c r="I57" s="20">
+      <c r="J57" s="20">
         <v>29.960999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B58" s="4">
         <v>42915</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="5">
+      <c r="C58" s="11">
+        <v>4.140972222223354</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="5">
         <v>3.3144444450073779E-2</v>
       </c>
-      <c r="E58" s="5">
+      <c r="F58" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F58" s="5">
+      <c r="G58" s="5">
         <v>0.01</v>
       </c>
-      <c r="G58" s="11">
+      <c r="H58" s="11">
         <v>7.9999999999991189</v>
       </c>
-      <c r="H58" s="20">
+      <c r="I58" s="20">
         <v>24.301400000000001</v>
       </c>
-      <c r="I58" s="20">
+      <c r="J58" s="20">
         <v>24.875</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B59" s="4">
         <v>42915</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="5">
+      <c r="C59" s="11">
+        <v>11.024305555554747</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="5">
         <v>6.863498595296573E-2</v>
       </c>
-      <c r="E59" s="5">
+      <c r="F59" s="5">
         <v>2.3E-2</v>
       </c>
-      <c r="F59" s="5">
+      <c r="G59" s="5">
         <v>0.02</v>
       </c>
-      <c r="G59" s="11">
+      <c r="H59" s="11">
         <v>10.333333333332936</v>
       </c>
-      <c r="H59" s="20">
+      <c r="I59" s="20">
         <v>28.529199999999999</v>
       </c>
-      <c r="I59" s="20">
+      <c r="J59" s="20">
         <v>27.611000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B60" s="4">
         <v>42928</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="5">
+      <c r="C60" s="11">
+        <v>10.740277777775191</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="5">
         <v>1.6799999999602636E-2</v>
       </c>
-      <c r="E60" s="5">
+      <c r="F60" s="5">
         <v>2E-3</v>
       </c>
-      <c r="F60" s="5">
+      <c r="G60" s="5">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G60" s="11">
+      <c r="H60" s="11">
         <v>8.9999999999997495</v>
       </c>
-      <c r="H60" s="20">
+      <c r="I60" s="20">
         <v>26.9024</v>
       </c>
-      <c r="I60" s="20">
+      <c r="J60" s="20">
         <v>24.809000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B61" s="4">
         <v>42944</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="5">
+      <c r="C61" s="11">
+        <v>6.2013888888905058</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E61" s="5">
+      <c r="F61" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F61" s="5">
+      <c r="G61" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G61" s="11">
+      <c r="H61" s="11">
         <v>10.333333333332936</v>
       </c>
-      <c r="H61" s="20">
+      <c r="I61" s="20">
         <v>21.2361</v>
       </c>
-      <c r="I61" s="20">
+      <c r="J61" s="20">
         <v>19.731000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B62" s="4">
         <v>43027</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="5">
+      <c r="C62" s="11">
+        <v>11</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="5">
         <v>8.1999999988675108E-3</v>
       </c>
-      <c r="E62" s="5">
+      <c r="F62" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F62" s="5">
+      <c r="G62" s="5">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G62" s="11">
+      <c r="H62" s="11">
         <v>33.000000000000071</v>
       </c>
-      <c r="H62" s="20">
+      <c r="I62" s="20">
         <v>17.736999999999998</v>
       </c>
-      <c r="I62" s="20">
+      <c r="J62" s="20">
         <v>16.440000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="4">
         <v>43045</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="5">
+      <c r="C63" s="11">
+        <v>15</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="5">
         <v>1.3933333333482343E-2</v>
       </c>
-      <c r="E63" s="5">
+      <c r="F63" s="5">
         <v>2E-3</v>
       </c>
-      <c r="F63" s="5">
+      <c r="G63" s="5">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="G63" s="11">
+      <c r="H63" s="11">
         <v>55.200000000001026</v>
       </c>
-      <c r="H63" s="20">
+      <c r="I63" s="20">
         <v>16.135000000000002</v>
       </c>
-      <c r="I63" s="20">
+      <c r="J63" s="20">
         <v>19.055</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B64" s="4">
         <v>43054</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="5">
+      <c r="C64" s="11">
+        <v>12</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E64" s="5">
+      <c r="F64" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F64" s="5">
+      <c r="G64" s="5">
         <v>0.215</v>
       </c>
-      <c r="G64" s="11">
+      <c r="H64" s="11">
         <v>414.54545454544927</v>
       </c>
-      <c r="H64" s="20">
+      <c r="I64" s="20">
         <v>17.414999999999999</v>
       </c>
-      <c r="I64" s="20">
+      <c r="J64" s="20">
         <v>19.309000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B65" s="4">
         <v>43186</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="5">
+      <c r="C65" s="11">
+        <v>13</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="5">
         <v>3.4959013464367403E-2</v>
       </c>
-      <c r="E65" s="5">
+      <c r="F65" s="5">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F65" s="5">
+      <c r="G65" s="5">
         <v>2.7E-2</v>
       </c>
-      <c r="G65" s="11">
+      <c r="H65" s="11">
         <v>2.0000000000012603</v>
       </c>
-      <c r="H65" s="20">
+      <c r="I65" s="20">
         <v>26.911000000000001</v>
       </c>
-      <c r="I65" s="20">
+      <c r="J65" s="20">
         <v>25.026</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B66" s="4">
         <v>43195</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="5">
+      <c r="C66" s="11">
+        <v>6.2722222222218988</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="5">
         <v>2.5579262410837338E-2</v>
       </c>
-      <c r="E66" s="5">
+      <c r="F66" s="5">
         <v>0.02</v>
       </c>
-      <c r="F66" s="5">
+      <c r="G66" s="5">
         <v>1.6E-2</v>
       </c>
-      <c r="G66" s="11">
+      <c r="H66" s="11">
         <v>1.0000000000006302</v>
       </c>
-      <c r="H66" s="20">
+      <c r="I66" s="20">
         <v>25.190999999999999</v>
       </c>
-      <c r="I66" s="20">
+      <c r="J66" s="20">
         <v>25.381</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B67" s="4">
         <v>43201</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="5">
+      <c r="C67" s="11">
+        <v>11.636111111110949</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="5">
         <v>2.8832418461281688E-2</v>
       </c>
-      <c r="E67" s="5">
+      <c r="F67" s="5">
         <v>0.01</v>
       </c>
-      <c r="F67" s="5">
+      <c r="G67" s="5">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="G67" s="11">
+      <c r="H67" s="11">
         <v>0.5</v>
       </c>
-      <c r="H67" s="20">
+      <c r="I67" s="20">
         <v>24.634</v>
       </c>
-      <c r="I67" s="20">
+      <c r="J67" s="20">
         <v>24.998999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B68" s="4">
         <v>43213</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="5">
+      <c r="C68" s="11">
+        <v>4.4104166666656965</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="5">
         <v>3.3799159663841123E-2</v>
       </c>
-      <c r="E68" s="5">
+      <c r="F68" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F68" s="5">
+      <c r="G68" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G68" s="11">
+      <c r="H68" s="11">
         <v>16.333333333332277</v>
       </c>
-      <c r="H68" s="20">
+      <c r="I68" s="20">
         <v>24.326000000000001</v>
       </c>
-      <c r="I68" s="20">
+      <c r="J68" s="20">
         <v>25.068000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B69" s="4">
         <v>43227</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="5">
+      <c r="C69" s="11">
+        <v>6.2493055555532919</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="5">
         <v>2.458888889274663E-2</v>
       </c>
-      <c r="E69" s="5">
+      <c r="F69" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F69" s="5">
+      <c r="G69" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G69" s="11">
+      <c r="H69" s="11">
         <v>12.666666666666753</v>
       </c>
-      <c r="H69" s="20">
+      <c r="I69" s="20">
         <v>27.042999999999999</v>
       </c>
-      <c r="I69" s="20">
+      <c r="J69" s="20">
         <v>28.163</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B70" s="4">
         <v>43243</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="5">
+      <c r="C70" s="11">
+        <v>15.827777777776646</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="5">
         <v>3.1564682540134899E-2</v>
       </c>
-      <c r="E70" s="5">
+      <c r="F70" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F70" s="5">
+      <c r="G70" s="5">
         <v>4.7E-2</v>
       </c>
-      <c r="G70" s="11">
+      <c r="H70" s="11">
         <v>1.3333333333331865</v>
       </c>
-      <c r="H70" s="20">
+      <c r="I70" s="20">
         <v>26.384</v>
       </c>
-      <c r="I70" s="20">
+      <c r="J70" s="20">
         <v>27.640999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B71" s="4">
         <v>43257</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="5">
+      <c r="C71" s="11">
+        <v>3.070138888884685</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="5">
         <v>2.1652809853746499E-2</v>
       </c>
-      <c r="E71" s="5">
+      <c r="F71" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F71" s="5">
+      <c r="G71" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G71" s="11">
+      <c r="H71" s="11">
         <v>1.0000000000006302</v>
       </c>
-      <c r="H71" s="20">
+      <c r="I71" s="20">
         <v>27.431999999999999</v>
       </c>
-      <c r="I71" s="20">
+      <c r="J71" s="20">
         <v>29.571000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B72" s="4">
         <v>43271</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="5">
+      <c r="C72" s="11">
+        <v>5.9583333333284827</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="5">
         <v>1.9924999998658897E-2</v>
       </c>
-      <c r="E72" s="5">
+      <c r="F72" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F72" s="5">
+      <c r="G72" s="5">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G72" s="11">
+      <c r="H72" s="11">
         <v>1.6666666666672234</v>
       </c>
-      <c r="H72" s="20">
+      <c r="I72" s="20">
         <v>27.670999999999999</v>
       </c>
-      <c r="I72" s="20">
+      <c r="J72" s="20">
         <v>28.367000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B73" s="4">
         <v>43283</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="5">
+      <c r="C73" s="11">
+        <v>2.6666666666715173</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="5">
         <v>7.2733333331886266E-2</v>
       </c>
-      <c r="E73" s="5">
+      <c r="F73" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F73" s="5">
+      <c r="G73" s="5">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="G73" s="11">
+      <c r="H73" s="11">
         <v>106.99999999999932</v>
       </c>
-      <c r="H73" s="20">
+      <c r="I73" s="20">
         <v>26.04</v>
       </c>
-      <c r="I73" s="20">
+      <c r="J73" s="20">
         <v>25.018000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B74" s="4">
         <v>43283</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="5">
+      <c r="C74" s="11">
+        <v>4.4270833333357587</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="5">
         <v>7.2733333331886266E-2</v>
       </c>
-      <c r="E74" s="5">
+      <c r="F74" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="F74" s="5">
+      <c r="G74" s="5">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="G74" s="11">
+      <c r="H74" s="11">
         <v>106.99999999999932</v>
       </c>
-      <c r="H74" s="20">
+      <c r="I74" s="20">
         <v>26.04</v>
       </c>
-      <c r="I74" s="20">
+      <c r="J74" s="20">
         <v>25.018000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B75" s="4">
         <v>43292</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="5">
+      <c r="C75" s="11">
+        <v>5.0374999999985448</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="5">
         <v>1.5666666667295825E-2</v>
       </c>
-      <c r="E75" s="5">
+      <c r="F75" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F75" s="5">
+      <c r="G75" s="5">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G75" s="11">
+      <c r="H75" s="11">
         <v>10.666666666666973</v>
       </c>
-      <c r="H75" s="20">
+      <c r="I75" s="20">
         <v>21.779</v>
       </c>
-      <c r="I75" s="20">
+      <c r="J75" s="20">
         <v>23.99</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B76" s="4">
         <v>43299</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="5">
+      <c r="C76" s="11">
+        <v>2.1687499999970896</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" s="5">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="E76" s="5">
+      <c r="F76" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F76" s="5">
+      <c r="G76" s="5">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G76" s="11">
+      <c r="H76" s="11">
         <v>10.666666666666973</v>
       </c>
-      <c r="H76" s="20">
+      <c r="I76" s="20">
         <v>21.515999999999998</v>
       </c>
-      <c r="I76" s="20">
+      <c r="J76" s="20">
         <v>25.285</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B77" s="4">
         <v>43340</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="5">
+      <c r="C77" s="11">
+        <v>14</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="5">
         <v>1.1200000000894071E-2</v>
       </c>
-      <c r="E77" s="5">
+      <c r="F77" s="5">
         <v>2E-3</v>
       </c>
-      <c r="F77" s="5">
+      <c r="G77" s="5">
         <v>1.645</v>
       </c>
-      <c r="G77" s="11">
+      <c r="H77" s="11">
         <v>250.00000000000355</v>
       </c>
-      <c r="H77" s="20">
+      <c r="I77" s="20">
         <v>12.522</v>
       </c>
-      <c r="I77" s="20">
+      <c r="J77" s="20">
         <v>16.056999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B78" s="4">
         <v>43354</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="5">
+      <c r="C78" s="11">
+        <v>14</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="5">
         <v>5.5877777778622177E-2</v>
       </c>
-      <c r="E78" s="5">
+      <c r="F78" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F78" s="5">
+      <c r="G78" s="5">
         <v>0.95899999999999996</v>
       </c>
-      <c r="G78" s="11">
+      <c r="H78" s="11">
         <v>512.99999999999898</v>
       </c>
-      <c r="H78" s="20">
+      <c r="I78" s="20">
         <v>20.99</v>
       </c>
-      <c r="I78" s="20">
+      <c r="J78" s="20">
         <v>28.126999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B79" s="4">
         <v>43369</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="5">
+      <c r="C79" s="11">
+        <v>0.98750000000291038</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="5">
         <v>1.8800000020116565E-2</v>
       </c>
-      <c r="E79" s="5">
+      <c r="F79" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F79" s="5">
+      <c r="G79" s="5">
         <v>3.9E-2</v>
       </c>
-      <c r="G79" s="11">
+      <c r="H79" s="11">
         <v>15.200000000000102</v>
       </c>
-      <c r="H79" s="20">
+      <c r="I79" s="20">
         <v>20.192</v>
       </c>
-      <c r="I79" s="20">
+      <c r="J79" s="20">
         <v>19.07</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B80" s="4">
         <v>43384</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="5">
+      <c r="C80" s="11">
+        <v>4.6888888888934162</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="5">
         <v>5.3099999998278101E-2</v>
       </c>
-      <c r="E80" s="5">
+      <c r="F80" s="5">
         <v>2E-3</v>
       </c>
-      <c r="F80" s="5">
+      <c r="G80" s="5">
         <v>0.19800000000000001</v>
       </c>
-      <c r="G80" s="11">
+      <c r="H80" s="11">
         <v>79.666666666667524</v>
       </c>
-      <c r="H80" s="20">
+      <c r="I80" s="20">
         <v>26.423999999999999</v>
       </c>
-      <c r="I80" s="20">
+      <c r="J80" s="20">
         <v>25.928999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B81" s="4">
         <v>43396</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="7">
+      <c r="C81" s="11">
+        <v>1.4868055555562023</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="7">
         <v>6.328214285962401E-2</v>
       </c>
-      <c r="E81" s="7">
+      <c r="F81" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F81" s="7">
+      <c r="G81" s="7">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="G81" s="12">
+      <c r="H81" s="12">
         <v>121.99999999999989</v>
       </c>
-      <c r="H81" s="20">
+      <c r="I81" s="20">
         <v>23.847000000000001</v>
       </c>
-      <c r="I81" s="20">
+      <c r="J81" s="20">
         <v>25.234000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B82" s="4">
         <v>43403</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="7">
+      <c r="C82" s="11">
+        <v>4.0131944444437977</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E82" s="7">
         <v>8.8999999997764825E-3</v>
       </c>
-      <c r="E82" s="7">
+      <c r="F82" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F82" s="7">
+      <c r="G82" s="7">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G82" s="12">
+      <c r="H82" s="12">
         <v>27.000000000000728</v>
       </c>
-      <c r="H82" s="20">
+      <c r="I82" s="20">
         <v>22.132000000000001</v>
       </c>
-      <c r="I82" s="20">
+      <c r="J82" s="20">
         <v>22.981999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B83" s="4">
         <v>43418</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="7">
+      <c r="C83" s="11">
+        <v>10.743055555554747</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="7">
         <v>1.2479999999880791E-2</v>
       </c>
-      <c r="E83" s="7">
+      <c r="F83" s="7">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F83" s="7">
+      <c r="G83" s="7">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="G83" s="12">
+      <c r="H83" s="12">
         <v>137.66666666666706</v>
       </c>
-      <c r="H83" s="20">
+      <c r="I83" s="20">
         <v>20.079000000000001</v>
       </c>
-      <c r="I83" s="20">
+      <c r="J83" s="20">
         <v>21.731000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B84" s="15">
         <v>42143</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="37">
+        <v>4.961111111108039</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="8">
+      <c r="E84" s="8">
         <v>2.8209956709956709E-2</v>
       </c>
-      <c r="E84" s="8">
+      <c r="F84" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F84" s="17">
+      <c r="G84" s="17">
         <v>1.5E-3</v>
       </c>
-      <c r="G84" s="13">
+      <c r="H84" s="13">
         <v>22.333666939333401</v>
       </c>
-      <c r="H84" s="20">
+      <c r="I84" s="20">
         <v>45.37</v>
       </c>
-      <c r="I84" s="20">
+      <c r="J84" s="20">
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B85" s="9">
         <v>42171</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="14">
+        <v>7.7937500000043656</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D85" s="8">
+      <c r="E85" s="8">
         <v>0.18999266601878848</v>
       </c>
-      <c r="E85" s="17">
+      <c r="F85" s="17">
         <v>2.7E-2</v>
       </c>
-      <c r="F85" s="8">
+      <c r="G85" s="8">
         <v>0.17699999999999999</v>
       </c>
-      <c r="G85" s="13">
+      <c r="H85" s="13">
         <v>1006.6666666666654</v>
       </c>
-      <c r="H85" s="20">
+      <c r="I85" s="20">
         <v>31.357399999999998</v>
       </c>
-      <c r="I85" s="20">
+      <c r="J85" s="20">
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B86" s="9">
         <v>42185</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="14"/>
+      <c r="D86" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D86" s="8">
+      <c r="E86" s="8">
         <v>1.2964599999999999</v>
       </c>
-      <c r="E86" s="8">
+      <c r="F86" s="8">
         <v>0.20300000000000001</v>
       </c>
-      <c r="F86" s="8">
+      <c r="G86" s="8">
         <v>1.2589999999999999</v>
       </c>
-      <c r="G86" s="13">
+      <c r="H86" s="13">
         <v>1338.6666666666674</v>
       </c>
-      <c r="H86" s="20">
+      <c r="I86" s="20">
         <v>32.086100000000002</v>
       </c>
-      <c r="I86" s="20">
+      <c r="J86" s="20">
         <v>31.2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B87" s="9">
         <v>42234</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="14"/>
+      <c r="D87" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="8">
+      <c r="E87" s="8">
         <v>0.13172243635498454</v>
       </c>
-      <c r="E87" s="8">
+      <c r="F87" s="8">
         <v>0.05</v>
       </c>
-      <c r="F87" s="8">
+      <c r="G87" s="8">
         <v>1.3280000000000001</v>
       </c>
-      <c r="G87" s="14">
+      <c r="H87" s="14">
         <v>2026.0000000000032</v>
       </c>
-      <c r="H87" s="20">
+      <c r="I87" s="20">
         <v>33.493200000000002</v>
       </c>
-      <c r="I87" s="20">
+      <c r="J87" s="20">
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B88" s="9">
         <v>42241</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="14"/>
+      <c r="D88" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D88" s="8">
+      <c r="E88" s="8">
         <v>0.12020408163265307</v>
       </c>
-      <c r="E88" s="8">
+      <c r="F88" s="8">
         <v>0.01</v>
       </c>
-      <c r="F88" s="8">
+      <c r="G88" s="8">
         <v>3.1179999999999999</v>
       </c>
-      <c r="G88" s="14">
+      <c r="H88" s="14">
         <v>1722.0000000000011</v>
       </c>
-      <c r="H88" s="20">
+      <c r="I88" s="20">
         <v>35.024999999999999</v>
       </c>
-      <c r="I88" s="20">
+      <c r="J88" s="20">
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B89" s="9">
         <v>42248</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="14"/>
+      <c r="D89" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D89" s="8">
+      <c r="E89" s="8">
         <v>0.54623611111111103</v>
       </c>
-      <c r="E89" s="8">
+      <c r="F89" s="8">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F89" s="8">
+      <c r="G89" s="8">
         <v>0.121</v>
       </c>
-      <c r="G89" s="14">
+      <c r="H89" s="14">
         <v>23.333333333333727</v>
       </c>
-      <c r="H89" s="20">
+      <c r="I89" s="20">
         <v>28.559899999999999</v>
       </c>
-      <c r="I89" s="20">
+      <c r="J89" s="20">
         <v>27.8</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B90" s="9">
         <v>42307</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="14"/>
+      <c r="D90" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D90" s="8">
+      <c r="E90" s="8">
         <v>3.763888888668683E-2</v>
       </c>
-      <c r="E90" s="8">
+      <c r="F90" s="8">
         <v>2E-3</v>
       </c>
-      <c r="F90" s="8">
+      <c r="G90" s="8">
         <v>1.6E-2</v>
       </c>
-      <c r="G90" s="14">
+      <c r="H90" s="14">
         <v>3.3333333333329662</v>
       </c>
-      <c r="H90" s="20">
+      <c r="I90" s="20">
         <v>40.226399999999998</v>
       </c>
-      <c r="I90" s="20">
+      <c r="J90" s="20">
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B91" s="9">
         <v>42307</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="14"/>
+      <c r="D91" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D91" s="8">
+      <c r="E91" s="8">
         <v>4.8966666669522728E-2</v>
       </c>
-      <c r="E91" s="8">
+      <c r="F91" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F91" s="8">
+      <c r="G91" s="8">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G91" s="14">
+      <c r="H91" s="14">
         <v>1.6666666666672234</v>
       </c>
-      <c r="H91" s="20">
+      <c r="I91" s="20">
         <v>37.3626</v>
       </c>
-      <c r="I91" s="20">
+      <c r="J91" s="20">
         <v>39.9</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B92" s="15">
         <v>42493</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="37">
+        <v>4.507638888891961</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="8">
+      <c r="E92" s="8">
         <v>0.24951825396926744</v>
       </c>
-      <c r="E92" s="8">
+      <c r="F92" s="8">
         <v>0.11</v>
       </c>
-      <c r="F92" s="8">
+      <c r="G92" s="8">
         <v>0.38800000000000001</v>
       </c>
-      <c r="G92" s="14">
+      <c r="H92" s="14">
         <v>335.99999999999852</v>
       </c>
-      <c r="H92" s="20">
+      <c r="I92" s="20">
         <v>28.333600000000001</v>
       </c>
-      <c r="I92" s="20">
+      <c r="J92" s="20">
         <v>30.696000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B93" s="9">
         <v>42507</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="14">
+        <v>5.8729166666671517</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="8">
+      <c r="E93" s="8">
         <v>9.1355555549644751E-2</v>
       </c>
-      <c r="E93" s="17">
+      <c r="F93" s="17">
         <v>1E-3</v>
       </c>
-      <c r="F93" s="8">
+      <c r="G93" s="8">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="G93" s="14">
+      <c r="H93" s="14">
         <v>1.9999999999997797</v>
       </c>
-      <c r="H93" s="20">
+      <c r="I93" s="20">
         <v>23.5624</v>
       </c>
-      <c r="I93" s="20">
+      <c r="J93" s="20">
         <v>22.478000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B94" s="9">
         <v>42608</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="14">
+        <v>1.3076388888875954</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D94" s="8">
+      <c r="E94" s="8">
         <v>4.7311111112899248E-2</v>
       </c>
-      <c r="E94" s="8">
+      <c r="F94" s="8">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="F94" s="8">
+      <c r="G94" s="8">
         <v>0.24099999999999999</v>
       </c>
-      <c r="G94" s="14">
+      <c r="H94" s="14">
         <v>99.999999999997868</v>
       </c>
-      <c r="H94" s="20">
+      <c r="I94" s="20">
         <v>12.8597</v>
       </c>
-      <c r="I94" s="20">
+      <c r="J94" s="20">
         <v>12.435</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B95" s="9">
         <v>42636</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="14">
+        <v>6.6409722222160781</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D95" s="8">
+      <c r="E95" s="8">
         <v>2.0528571426540618E-2</v>
       </c>
-      <c r="E95" s="17">
+      <c r="F95" s="17">
         <v>1E-3</v>
       </c>
-      <c r="F95" s="8">
+      <c r="G95" s="8">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G95" s="14">
+      <c r="H95" s="14">
         <v>33.999999999999218</v>
       </c>
-      <c r="H95" s="20">
+      <c r="I95" s="20">
         <v>18.050799999999999</v>
       </c>
-      <c r="I95" s="20">
+      <c r="J95" s="20">
         <v>14.275</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B96" s="9">
         <v>42650</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="14">
+        <v>1.7638888888832298</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="8">
+      <c r="E96" s="8">
         <v>4.1640000004351141E-2</v>
       </c>
-      <c r="E96" s="8">
+      <c r="F96" s="8">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="F96" s="8">
+      <c r="G96" s="8">
         <v>1.5680000000000001</v>
       </c>
-      <c r="G96" s="14">
+      <c r="H96" s="14">
         <v>1.3333333333331865</v>
       </c>
-      <c r="H96" s="20">
+      <c r="I96" s="20">
         <v>11.710100000000001</v>
       </c>
-      <c r="I96" s="20">
+      <c r="J96" s="20">
         <v>14.456</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B97" s="9">
         <v>42650</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="14">
+        <v>2.2722222222218988</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="8">
+      <c r="E97" s="8">
         <v>8.3825714284486014E-2</v>
       </c>
-      <c r="E97" s="8">
+      <c r="F97" s="8">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="F97" s="8">
+      <c r="G97" s="8">
         <v>0.15</v>
       </c>
-      <c r="G97" s="14">
+      <c r="H97" s="14">
         <v>35.666666666666444</v>
       </c>
-      <c r="H97" s="20">
+      <c r="I97" s="20">
         <v>20.349599999999999</v>
       </c>
-      <c r="I97" s="20">
+      <c r="J97" s="20">
         <v>19.486000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B98" s="9">
         <v>42845</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="14">
+        <v>1.4090277777722804</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D98" s="8">
+      <c r="E98" s="8">
         <v>9.9472222223728909E-2</v>
       </c>
-      <c r="E98" s="17">
+      <c r="F98" s="17">
         <v>1E-3</v>
       </c>
-      <c r="F98" s="8">
+      <c r="G98" s="8">
         <v>0.152</v>
       </c>
-      <c r="G98" s="13">
+      <c r="H98" s="13">
         <v>140.33333333333343</v>
       </c>
-      <c r="H98" s="20">
+      <c r="I98" s="20">
         <v>22.015499999999999</v>
       </c>
-      <c r="I98" s="20">
+      <c r="J98" s="20">
         <v>31.292000000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B99" s="9">
         <v>42845</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="14">
+        <v>0.58402777778246673</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D99" s="8">
+      <c r="E99" s="8">
         <v>0.13858888888463375</v>
       </c>
-      <c r="E99" s="17">
+      <c r="F99" s="17">
         <v>1E-3</v>
       </c>
-      <c r="F99" s="8">
+      <c r="G99" s="8">
         <v>2.7E-2</v>
       </c>
-      <c r="G99" s="13">
+      <c r="H99" s="13">
         <v>19.666666666666721</v>
       </c>
-      <c r="H99" s="20">
+      <c r="I99" s="20">
         <v>22.360900000000001</v>
       </c>
-      <c r="I99" s="20">
+      <c r="J99" s="20">
         <v>30.96</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B100" s="9">
         <v>42859</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="14">
+        <v>1.7097222222218988</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D100" s="8">
+      <c r="E100" s="8">
         <v>0.14384166666507719</v>
       </c>
-      <c r="E100" s="8">
+      <c r="F100" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F100" s="8">
+      <c r="G100" s="8">
         <v>0.504</v>
       </c>
-      <c r="G100" s="13">
+      <c r="H100" s="13">
         <v>604</v>
       </c>
-      <c r="H100" s="20">
+      <c r="I100" s="20">
         <v>25.8505</v>
       </c>
-      <c r="I100" s="20">
+      <c r="J100" s="20">
         <v>37.484000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B101" s="9">
         <v>42886</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="14">
+        <v>3.8791666666656965</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="8">
+      <c r="E101" s="8">
         <v>0.18364444444262318</v>
       </c>
-      <c r="E101" s="8">
+      <c r="F101" s="8">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="F101" s="8">
+      <c r="G101" s="8">
         <v>0.53400000000000003</v>
       </c>
-      <c r="G101" s="13">
+      <c r="H101" s="13">
         <v>743.99999999999807</v>
       </c>
-      <c r="H101" s="20">
+      <c r="I101" s="20">
         <v>24.370200000000001</v>
       </c>
-      <c r="I101" s="20">
+      <c r="J101" s="20">
         <v>48.6</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B102" s="9">
         <v>43017</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="14">
+        <v>1.59375</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D102" s="8">
+      <c r="E102" s="8">
         <v>6.3933333330816688E-2</v>
       </c>
-      <c r="E102" s="8">
+      <c r="F102" s="8">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F102" s="8">
+      <c r="G102" s="8">
         <v>0.20499999999999999</v>
       </c>
-      <c r="G102" s="14">
+      <c r="H102" s="14">
         <v>49.999999999998934</v>
       </c>
-      <c r="H102" s="20">
+      <c r="I102" s="20">
         <v>13.622999999999999</v>
       </c>
-      <c r="I102" s="20">
+      <c r="J102" s="20">
         <v>13.023</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B103" s="9">
         <v>43227</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="14">
+        <v>4.0326388888861402</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="8">
+      <c r="E103" s="8">
         <v>5.1613888888205922E-2</v>
       </c>
-      <c r="E103" s="17">
+      <c r="F103" s="17">
         <v>1E-3</v>
       </c>
-      <c r="F103" s="8">
+      <c r="G103" s="8">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G103" s="13">
+      <c r="H103" s="13">
         <v>10.333333333332936</v>
       </c>
-      <c r="H103" s="20">
+      <c r="I103" s="20">
         <v>25.349</v>
       </c>
-      <c r="I103" s="20">
+      <c r="J103" s="20">
         <v>27.661999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B104" s="15">
         <v>43264</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="37">
+        <v>0.71111111110803904</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D104" s="8">
+      <c r="E104" s="8">
         <v>8.2276923076143621E-2</v>
       </c>
-      <c r="E104" s="17">
+      <c r="F104" s="17">
         <v>1E-3</v>
       </c>
-      <c r="F104" s="8">
+      <c r="G104" s="8">
         <v>1.147</v>
       </c>
-      <c r="G104" s="14">
+      <c r="H104" s="14">
         <v>2822.0000000000041</v>
       </c>
-      <c r="H104" s="20">
+      <c r="I104" s="20">
         <v>24.658999999999999</v>
       </c>
-      <c r="I104" s="20">
+      <c r="J104" s="20">
         <v>28.686</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B105" s="15">
         <v>43273</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="37">
+        <v>1.4131944444452529</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D105" s="8">
+      <c r="E105" s="8">
         <v>0.1034142156862745</v>
       </c>
-      <c r="E105" s="17">
+      <c r="F105" s="17">
         <v>1E-3</v>
       </c>
-      <c r="F105" s="8">
+      <c r="G105" s="8">
         <v>1.147</v>
       </c>
-      <c r="G105" s="14">
+      <c r="H105" s="14">
         <v>2822.0000000000041</v>
       </c>
-      <c r="H105" s="20">
+      <c r="I105" s="20">
         <v>24.658999999999999</v>
       </c>
-      <c r="I105" s="20">
+      <c r="J105" s="20">
         <v>28.686</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B106" s="15">
         <v>43278</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="37">
+        <v>2.8993055555547471</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D106" s="8">
+      <c r="E106" s="8">
         <v>0.18909931534305427</v>
       </c>
-      <c r="E106" s="8">
+      <c r="F106" s="8">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F106" s="8">
+      <c r="G106" s="8">
         <v>1.2549999999999999</v>
       </c>
-      <c r="G106" s="14">
+      <c r="H106" s="14">
         <v>11166</v>
       </c>
-      <c r="H106" s="20">
+      <c r="I106" s="20">
         <v>3.0510000000000002</v>
       </c>
-      <c r="I106" s="20">
+      <c r="J106" s="20">
         <v>12.79</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B107" s="15">
         <v>43340</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="37">
+        <v>4.0791666666700621</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D107" s="8">
+      <c r="E107" s="8">
         <v>0.13937777779541083</v>
       </c>
-      <c r="E107" s="8">
+      <c r="F107" s="8">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F107" s="8">
+      <c r="G107" s="8">
         <v>1.2549999999999999</v>
       </c>
-      <c r="G107" s="13">
+      <c r="H107" s="13">
         <v>11166</v>
       </c>
-      <c r="H107" s="20">
+      <c r="I107" s="20">
         <v>3.0510000000000002</v>
       </c>
-      <c r="I107" s="20">
+      <c r="J107" s="20">
         <v>12.79</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B108" s="15">
         <v>43354</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="37">
+        <v>2.4902777777751908</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D108" s="8">
+      <c r="E108" s="8">
         <v>0.12049999999841055</v>
       </c>
-      <c r="E108" s="8">
+      <c r="F108" s="8">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F108" s="8">
+      <c r="G108" s="8">
         <v>0.33800000000000002</v>
       </c>
-      <c r="G108" s="14">
+      <c r="H108" s="14">
         <v>363.33333333333331</v>
       </c>
-      <c r="H108" s="20">
+      <c r="I108" s="20">
         <v>25.088000000000001</v>
       </c>
-      <c r="I108" s="20">
+      <c r="J108" s="20">
         <v>29.405999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B109" s="15">
         <v>43354</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="37">
+        <v>2.4722222222262644</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D109" s="8">
+      <c r="E109" s="8">
         <v>0.11539629629622454</v>
       </c>
-      <c r="E109" s="8">
+      <c r="F109" s="8">
         <v>1.4E-2</v>
       </c>
-      <c r="F109" s="8">
+      <c r="G109" s="8">
         <v>0.498</v>
       </c>
-      <c r="G109" s="14">
+      <c r="H109" s="14">
         <v>161.99999999999903</v>
       </c>
-      <c r="H109" s="20">
+      <c r="I109" s="20">
         <v>25.824999999999999</v>
       </c>
-      <c r="I109" s="20">
+      <c r="J109" s="20">
         <v>27.401</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B110" s="15">
         <v>43369</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="37">
+        <v>12.349305555551837</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D110" s="8">
+      <c r="E110" s="8">
         <v>8.5014814812877676E-2</v>
       </c>
-      <c r="E110" s="8">
+      <c r="F110" s="8">
         <v>0.01</v>
       </c>
-      <c r="F110" s="8">
+      <c r="G110" s="8">
         <v>0.29299999999999998</v>
       </c>
-      <c r="G110" s="14">
+      <c r="H110" s="14">
         <v>474.49999999999989</v>
       </c>
-      <c r="H110" s="20">
+      <c r="I110" s="20">
         <v>23.053999999999998</v>
       </c>
-      <c r="I110" s="20">
+      <c r="J110" s="20">
         <v>25.21</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B111" s="15">
         <v>43384</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="37">
+        <v>5.4965277777737356</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D111" s="8">
+      <c r="E111" s="8">
         <v>0.11374444444190296</v>
       </c>
-      <c r="E111" s="8">
+      <c r="F111" s="8">
         <v>4.7E-2</v>
       </c>
-      <c r="F111" s="8">
+      <c r="G111" s="8">
         <v>0.19</v>
       </c>
-      <c r="G111" s="14">
+      <c r="H111" s="14">
         <v>147.99999999999969</v>
       </c>
-      <c r="H111" s="20">
+      <c r="I111" s="20">
         <v>25.689</v>
       </c>
-      <c r="I111" s="20">
+      <c r="J111" s="20">
         <v>27.724</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B112" s="15">
         <v>43384</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D112" s="8">
+      <c r="E112" s="8">
         <v>0.1566342913776019</v>
       </c>
-      <c r="E112" s="8">
+      <c r="F112" s="8">
         <v>4.7E-2</v>
       </c>
-      <c r="F112" s="8">
+      <c r="G112" s="8">
         <v>0.19</v>
       </c>
-      <c r="G112" s="14">
+      <c r="H112" s="14">
         <v>147.99999999999969</v>
       </c>
-      <c r="H112" s="20">
+      <c r="I112" s="20">
         <v>25.689</v>
       </c>
-      <c r="I112" s="20">
+      <c r="J112" s="20">
         <v>27.724</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B113" s="18">
         <v>42083</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113" s="19">
+      <c r="C113" s="20"/>
+      <c r="D113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" s="19">
         <v>0.02</v>
       </c>
-      <c r="E113" s="19">
+      <c r="F113" s="19">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F113" s="19">
+      <c r="G113" s="19">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G113" s="20">
+      <c r="H113" s="20">
         <v>0.5</v>
       </c>
-      <c r="H113" s="20">
+      <c r="I113" s="20">
         <v>11.7</v>
       </c>
-      <c r="I113" s="20">
+      <c r="J113" s="20">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B114" s="18">
         <v>42090</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114" s="19">
+      <c r="C114" s="20"/>
+      <c r="D114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="19">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E114" s="19">
+      <c r="F114" s="19">
         <v>2.4E-2</v>
       </c>
-      <c r="F114" s="19">
+      <c r="G114" s="19">
         <v>1.6E-2</v>
       </c>
-      <c r="G114" s="20">
+      <c r="H114" s="20">
         <v>0.5</v>
       </c>
-      <c r="H114" s="20">
+      <c r="I114" s="20">
         <v>11.5</v>
       </c>
-      <c r="I114" s="20">
+      <c r="J114" s="20">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B115" s="18">
         <v>42097</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" s="19">
+      <c r="C115" s="20"/>
+      <c r="D115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="19">
         <v>1.4E-2</v>
       </c>
-      <c r="E115" s="19">
+      <c r="F115" s="19">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F115" s="19">
+      <c r="G115" s="19">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G115" s="20">
+      <c r="H115" s="20">
         <v>0.5</v>
       </c>
-      <c r="H115" s="20">
+      <c r="I115" s="20">
         <v>12.9</v>
       </c>
-      <c r="I115" s="20">
+      <c r="J115" s="20">
         <v>11.7</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B116" s="18">
         <v>42105</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D116" s="19">
+      <c r="C116" s="20"/>
+      <c r="D116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="19">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E116" s="19">
+      <c r="F116" s="19">
         <v>3.1E-2</v>
       </c>
-      <c r="F116" s="19">
+      <c r="G116" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="G116" s="20">
+      <c r="H116" s="20">
         <v>0.5</v>
       </c>
-      <c r="H116" s="20">
+      <c r="I116" s="20">
         <v>13</v>
       </c>
-      <c r="I116" s="20">
+      <c r="J116" s="20">
         <v>11.7</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B117" s="18">
         <v>42111</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D117" s="19">
+      <c r="C117" s="20"/>
+      <c r="D117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="19">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E117" s="19">
+      <c r="F117" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F117" s="19">
+      <c r="G117" s="19">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G117" s="20">
+      <c r="H117" s="20">
         <v>1.7</v>
       </c>
-      <c r="H117" s="20">
+      <c r="I117" s="20">
         <v>12.9</v>
       </c>
-      <c r="I117" s="20">
+      <c r="J117" s="20">
         <v>11.7</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B118" s="18">
         <v>42116</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D118" s="19">
+      <c r="C118" s="20"/>
+      <c r="D118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="19">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="E118" s="19">
+      <c r="F118" s="19">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F118" s="19">
+      <c r="G118" s="19">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="G118" s="20">
+      <c r="H118" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H118" s="20">
+      <c r="I118" s="20">
         <v>12.2</v>
       </c>
-      <c r="I118" s="20">
+      <c r="J118" s="20">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B119" s="18">
         <v>42119</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" s="19">
+      <c r="C119" s="20"/>
+      <c r="D119" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="19">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="E119" s="19">
+      <c r="F119" s="19">
         <v>0.125</v>
       </c>
-      <c r="F119" s="19">
+      <c r="G119" s="19">
         <v>0.14399999999999999</v>
       </c>
-      <c r="G119" s="20">
+      <c r="H119" s="20">
         <v>7.2</v>
       </c>
-      <c r="H119" s="20">
+      <c r="I119" s="20">
         <v>12.6</v>
       </c>
-      <c r="I119" s="20">
+      <c r="J119" s="20">
         <v>11.2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B120" s="18">
         <v>42125</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D120" s="19">
+      <c r="C120" s="20"/>
+      <c r="D120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="19">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="E120" s="19">
+      <c r="F120" s="19">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F120" s="19">
+      <c r="G120" s="19">
         <v>0.224</v>
       </c>
-      <c r="G120" s="20">
+      <c r="H120" s="20">
         <v>0.5</v>
       </c>
-      <c r="H120" s="20">
+      <c r="I120" s="20">
         <v>14.1</v>
       </c>
-      <c r="I120" s="20">
+      <c r="J120" s="20">
         <v>14.2</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B121" s="18">
         <v>42133</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D121" s="19">
+      <c r="C121" s="20"/>
+      <c r="D121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="19">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="E121" s="19">
+      <c r="F121" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F121" s="19">
+      <c r="G121" s="19">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="G121" s="20">
+      <c r="H121" s="20">
         <v>0.5</v>
       </c>
-      <c r="H121" s="20">
+      <c r="I121" s="20">
         <v>15</v>
       </c>
-      <c r="I121" s="20">
+      <c r="J121" s="20">
         <v>14.2</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B122" s="18">
         <v>42136</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D122" s="19">
+      <c r="C122" s="20"/>
+      <c r="D122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="19">
         <v>2.7E-2</v>
       </c>
-      <c r="E122" s="19">
+      <c r="F122" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F122" s="19">
+      <c r="G122" s="19">
         <v>0.03</v>
       </c>
-      <c r="G122" s="20">
+      <c r="H122" s="20">
         <v>0.5</v>
       </c>
-      <c r="H122" s="20">
+      <c r="I122" s="20">
         <v>14.6</v>
       </c>
-      <c r="I122" s="20">
+      <c r="J122" s="20">
         <v>15.6</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B123" s="18">
         <v>42143</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D123" s="19">
+      <c r="C123" s="20"/>
+      <c r="D123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="19">
         <v>0.08</v>
       </c>
-      <c r="E123" s="19">
+      <c r="F123" s="19">
         <v>1.6E-2</v>
       </c>
-      <c r="F123" s="19">
+      <c r="G123" s="19">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G123" s="20">
+      <c r="H123" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H123" s="20">
+      <c r="I123" s="20">
         <v>13.9</v>
       </c>
-      <c r="I123" s="20">
+      <c r="J123" s="20">
         <v>13.1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B124" s="18">
         <v>42150</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D124" s="19">
+      <c r="C124" s="20"/>
+      <c r="D124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="19">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E124" s="19">
+      <c r="F124" s="19">
         <v>1.2E-2</v>
       </c>
-      <c r="F124" s="19">
+      <c r="G124" s="19">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="G124" s="20">
+      <c r="H124" s="20">
         <v>11.7</v>
       </c>
-      <c r="H124" s="20">
+      <c r="I124" s="20">
         <v>14.9</v>
       </c>
-      <c r="I124" s="20">
+      <c r="J124" s="20">
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B125" s="18">
         <v>42157</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D125" s="19">
+      <c r="C125" s="20"/>
+      <c r="D125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="19">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E125" s="19">
+      <c r="F125" s="19">
         <v>0.01</v>
       </c>
-      <c r="F125" s="19">
+      <c r="G125" s="19">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G125" s="20">
+      <c r="H125" s="20">
         <v>6.9</v>
       </c>
-      <c r="H125" s="20">
+      <c r="I125" s="20">
         <v>14.2</v>
       </c>
-      <c r="I125" s="20">
+      <c r="J125" s="20">
         <v>13.6</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B126" s="18">
         <v>42164</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D126" s="19">
+      <c r="C126" s="20"/>
+      <c r="D126" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="19">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E126" s="19">
+      <c r="F126" s="19">
         <v>0.02</v>
       </c>
-      <c r="F126" s="19">
+      <c r="G126" s="19">
         <v>0.104</v>
       </c>
-      <c r="G126" s="20">
+      <c r="H126" s="20">
         <v>244</v>
       </c>
-      <c r="H126" s="20">
+      <c r="I126" s="20">
         <v>14.1</v>
       </c>
-      <c r="I126" s="20">
+      <c r="J126" s="20">
         <v>13.8</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B127" s="18">
         <v>42171</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D127" s="19">
+      <c r="C127" s="20"/>
+      <c r="D127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="19">
         <v>3.9E-2</v>
       </c>
-      <c r="E127" s="19">
+      <c r="F127" s="19">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F127" s="19">
+      <c r="G127" s="19">
         <v>0.123</v>
       </c>
-      <c r="G127" s="20">
+      <c r="H127" s="20">
         <v>19.100000000000001</v>
       </c>
-      <c r="H127" s="20">
+      <c r="I127" s="20">
         <v>12.3</v>
       </c>
-      <c r="I127" s="20">
+      <c r="J127" s="20">
         <v>10.5</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B128" s="18">
         <v>42177</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D128" s="19">
+      <c r="C128" s="20"/>
+      <c r="D128" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="19">
         <v>1.9E-2</v>
       </c>
-      <c r="E128" s="19">
+      <c r="F128" s="19">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F128" s="19">
+      <c r="G128" s="19">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G128" s="20">
+      <c r="H128" s="20">
         <v>5.4</v>
       </c>
-      <c r="H128" s="20">
+      <c r="I128" s="20">
         <v>13.3</v>
       </c>
-      <c r="I128" s="20">
+      <c r="J128" s="20">
         <v>11.9</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B129" s="18">
         <v>42185</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D129" s="19">
+      <c r="C129" s="20"/>
+      <c r="D129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="19">
         <v>0.129</v>
       </c>
-      <c r="E129" s="19">
+      <c r="F129" s="19">
         <v>3.1E-2</v>
       </c>
-      <c r="F129" s="19">
+      <c r="G129" s="19">
         <v>1.6E-2</v>
       </c>
-      <c r="G129" s="20">
+      <c r="H129" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H129" s="20">
+      <c r="I129" s="20">
         <v>15.2</v>
       </c>
-      <c r="I129" s="20">
+      <c r="J129" s="20">
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B130" s="18">
         <v>42192</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D130" s="19">
+      <c r="C130" s="20"/>
+      <c r="D130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="19">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E130" s="19">
+      <c r="F130" s="19">
         <v>0.01</v>
       </c>
-      <c r="F130" s="19">
+      <c r="G130" s="19">
         <v>1.4E-2</v>
       </c>
-      <c r="G130" s="20">
+      <c r="H130" s="20">
         <v>7.6</v>
       </c>
-      <c r="H130" s="20">
+      <c r="I130" s="20">
         <v>15.2</v>
       </c>
-      <c r="I130" s="20">
+      <c r="J130" s="20">
         <v>14.1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B131" s="18">
         <v>42199</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D131" s="19">
+      <c r="C131" s="20"/>
+      <c r="D131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="19">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E131" s="19">
+      <c r="F131" s="19">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F131" s="19">
+      <c r="G131" s="19">
         <v>2.4E-2</v>
       </c>
-      <c r="G131" s="20">
+      <c r="H131" s="20">
         <v>1.4</v>
       </c>
-      <c r="H131" s="20">
+      <c r="I131" s="20">
         <v>12.7</v>
       </c>
-      <c r="I131" s="20">
+      <c r="J131" s="20">
         <v>13.4</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B132" s="18">
         <v>42206</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D132" s="19">
+      <c r="C132" s="20"/>
+      <c r="D132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132" s="19">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E132" s="19">
+      <c r="F132" s="19">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F132" s="19">
+      <c r="G132" s="19">
         <v>0.11899999999999999</v>
       </c>
-      <c r="G132" s="20">
+      <c r="H132" s="20">
         <v>3.5</v>
       </c>
-      <c r="H132" s="20">
+      <c r="I132" s="20">
         <v>10.199999999999999</v>
       </c>
-      <c r="I132" s="20">
+      <c r="J132" s="20">
         <v>10.5</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B133" s="18">
         <v>42213</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D133" s="19">
+      <c r="C133" s="20"/>
+      <c r="D133" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="19">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E133" s="19">
+      <c r="F133" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F133" s="19">
+      <c r="G133" s="19">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G133" s="20">
+      <c r="H133" s="20">
         <v>0.9</v>
       </c>
-      <c r="H133" s="20">
+      <c r="I133" s="20">
         <v>5.9</v>
       </c>
-      <c r="I133" s="20">
+      <c r="J133" s="20">
         <v>6.8</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B134" s="18">
         <v>42220</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D134" s="19">
+      <c r="C134" s="20"/>
+      <c r="D134" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134" s="19">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E134" s="19">
+      <c r="F134" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F134" s="19">
+      <c r="G134" s="19">
         <v>1.4E-2</v>
       </c>
-      <c r="G134" s="20">
+      <c r="H134" s="20">
         <v>0.5</v>
       </c>
-      <c r="H134" s="20">
+      <c r="I134" s="20">
         <v>6.5</v>
       </c>
-      <c r="I134" s="20">
+      <c r="J134" s="20">
         <v>6.1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B135" s="18">
         <v>42227</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D135" s="19">
+      <c r="C135" s="20"/>
+      <c r="D135" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E135" s="19">
+      <c r="F135" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F135" s="19">
+      <c r="G135" s="19">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G135" s="20">
+      <c r="H135" s="20">
         <v>15.7</v>
       </c>
-      <c r="H135" s="20">
+      <c r="I135" s="20">
         <v>4.5</v>
       </c>
-      <c r="I135" s="20">
+      <c r="J135" s="20">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B136" s="18">
         <v>42234</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D136" s="19">
+      <c r="C136" s="20"/>
+      <c r="D136" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="19">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E136" s="19">
+      <c r="F136" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F136" s="19">
+      <c r="G136" s="19">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="G136" s="20">
+      <c r="H136" s="20">
         <v>2.7</v>
       </c>
-      <c r="H136" s="20">
+      <c r="I136" s="20">
         <v>4.3</v>
       </c>
-      <c r="I136" s="20">
+      <c r="J136" s="20">
         <v>4.7</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B137" s="18">
         <v>42241</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D137" s="19">
+      <c r="C137" s="20"/>
+      <c r="D137" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="19">
         <v>1.2E-2</v>
       </c>
-      <c r="E137" s="19">
+      <c r="F137" s="19">
         <v>2.7E-2</v>
       </c>
-      <c r="F137" s="19">
+      <c r="G137" s="19">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G137" s="20">
+      <c r="H137" s="20">
         <v>15</v>
       </c>
-      <c r="H137" s="20">
+      <c r="I137" s="20">
         <v>12.9</v>
       </c>
-      <c r="I137" s="20">
+      <c r="J137" s="20">
         <v>12.4</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B138" s="18">
         <v>42248</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D138" s="19">
+      <c r="C138" s="20"/>
+      <c r="D138" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="19">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="E138" s="19">
+      <c r="F138" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F138" s="19">
+      <c r="G138" s="19">
         <v>4.7E-2</v>
       </c>
-      <c r="G138" s="20">
+      <c r="H138" s="20">
         <v>6.9</v>
       </c>
-      <c r="H138" s="20">
+      <c r="I138" s="20">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I138" s="20">
+      <c r="J138" s="20">
         <v>5.3</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B139" s="18">
         <v>42255</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D139" s="19">
+      <c r="C139" s="20"/>
+      <c r="D139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="19">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="E139" s="19">
+      <c r="F139" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F139" s="19">
+      <c r="G139" s="19">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G139" s="20">
+      <c r="H139" s="20">
         <v>8</v>
       </c>
-      <c r="H139" s="20">
+      <c r="I139" s="20">
         <v>2.9</v>
       </c>
-      <c r="I139" s="20">
+      <c r="J139" s="20">
         <v>7.3</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B140" s="18">
         <v>42262</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D140" s="19">
+      <c r="C140" s="20"/>
+      <c r="D140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140" s="19">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E140" s="19">
+      <c r="F140" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F140" s="19">
+      <c r="G140" s="19">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="G140" s="20">
+      <c r="H140" s="20">
         <v>8.1</v>
       </c>
-      <c r="H140" s="20">
+      <c r="I140" s="20">
         <v>2.6</v>
       </c>
-      <c r="I140" s="20">
+      <c r="J140" s="20">
         <v>5.8</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B141" s="18">
         <v>42276</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D141" s="19">
+      <c r="C141" s="20"/>
+      <c r="D141" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="19">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E141" s="19">
+      <c r="F141" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F141" s="19">
+      <c r="G141" s="19">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="G141" s="20">
+      <c r="H141" s="20">
         <v>52.1</v>
       </c>
-      <c r="H141" s="20">
+      <c r="I141" s="20">
         <v>3.2</v>
       </c>
-      <c r="I141" s="20">
+      <c r="J141" s="20">
         <v>4.8</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B142" s="18">
         <v>42283</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D142" s="19">
+      <c r="C142" s="20"/>
+      <c r="D142" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="19">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E142" s="19">
+      <c r="F142" s="19">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F142" s="19">
+      <c r="G142" s="19">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G142" s="20">
+      <c r="H142" s="20">
         <v>1.9</v>
       </c>
-      <c r="H142" s="20">
+      <c r="I142" s="20">
         <v>6.8</v>
       </c>
-      <c r="I142" s="20">
+      <c r="J142" s="20">
         <v>9.5</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B143" s="18">
         <v>42297</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D143" s="19">
+      <c r="C143" s="20"/>
+      <c r="D143" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="19">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E143" s="19">
+      <c r="F143" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F143" s="19">
+      <c r="G143" s="19">
         <v>0.04</v>
       </c>
-      <c r="G143" s="20">
+      <c r="H143" s="20">
         <v>0.8</v>
       </c>
-      <c r="H143" s="20">
+      <c r="I143" s="20">
         <v>6.3</v>
       </c>
-      <c r="I143" s="20">
+      <c r="J143" s="20">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B144" s="18">
         <v>42307</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D144" s="19">
+      <c r="C144" s="20"/>
+      <c r="D144" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="19">
         <v>0.03</v>
       </c>
-      <c r="E144" s="19">
+      <c r="F144" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F144" s="19">
+      <c r="G144" s="19">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G144" s="20">
+      <c r="H144" s="20">
         <v>4.5</v>
       </c>
-      <c r="H144" s="20">
+      <c r="I144" s="20">
         <v>8.6</v>
       </c>
-      <c r="I144" s="20">
+      <c r="J144" s="20">
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B145" s="18">
         <v>42327</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D145" s="19">
+      <c r="C145" s="20"/>
+      <c r="D145" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="19">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E145" s="19">
+      <c r="F145" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F145" s="19">
+      <c r="G145" s="19">
         <v>1.4E-2</v>
       </c>
-      <c r="G145" s="20">
+      <c r="H145" s="20">
         <v>8.9</v>
       </c>
-      <c r="H145" s="20">
+      <c r="I145" s="20">
         <v>9.6</v>
       </c>
-      <c r="I145" s="20">
+      <c r="J145" s="20">
         <v>10.1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B146" s="18">
         <v>42460</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D146" s="19">
+      <c r="C146" s="20">
+        <v>16.306250000001455</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="19">
         <v>1.4E-2</v>
       </c>
-      <c r="E146" s="19">
+      <c r="F146" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F146" s="19">
+      <c r="G146" s="19">
         <v>0.112</v>
       </c>
-      <c r="G146" s="20">
+      <c r="H146" s="20">
         <v>13.5</v>
       </c>
-      <c r="H146" s="20">
+      <c r="I146" s="20">
         <v>9.5</v>
       </c>
-      <c r="I146" s="20">
+      <c r="J146" s="20">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B147" s="18">
         <v>42474</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D147" s="19">
+      <c r="C147" s="20">
+        <v>1.3423611111138598</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="19">
         <v>1.9E-2</v>
       </c>
-      <c r="E147" s="19">
+      <c r="F147" s="19">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F147" s="19">
+      <c r="G147" s="19">
         <v>0.01</v>
       </c>
-      <c r="G147" s="20">
+      <c r="H147" s="20">
         <v>6.3</v>
       </c>
-      <c r="H147" s="20">
+      <c r="I147" s="20">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I147" s="20">
+      <c r="J147" s="20">
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B148" s="18">
         <v>42488</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D148" s="19">
+      <c r="C148" s="20">
+        <v>3.5576388888875954</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" s="19">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E148" s="19">
+      <c r="F148" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F148" s="19">
+      <c r="G148" s="19">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G148" s="20">
+      <c r="H148" s="20">
         <v>5.8</v>
       </c>
-      <c r="H148" s="20">
+      <c r="I148" s="20">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I148" s="20">
+      <c r="J148" s="20">
         <v>6.4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B149" s="18">
         <v>42493</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D149" s="19">
+      <c r="C149" s="20">
+        <v>3.1298611111124046</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" s="19">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E149" s="19">
+      <c r="F149" s="19">
         <v>3.1E-2</v>
       </c>
-      <c r="F149" s="19">
+      <c r="G149" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="G149" s="20">
+      <c r="H149" s="20">
         <v>4.3</v>
       </c>
-      <c r="H149" s="20">
+      <c r="I149" s="20">
         <v>7</v>
       </c>
-      <c r="I149" s="20">
+      <c r="J149" s="20">
         <v>7.3</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B150" s="18">
         <v>42507</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D150" s="19">
+      <c r="C150" s="20">
+        <v>1.7208333333328483</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150" s="19">
         <v>3.9E-2</v>
       </c>
-      <c r="E150" s="19">
+      <c r="F150" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F150" s="19">
+      <c r="G150" s="19">
         <v>3.1E-2</v>
       </c>
-      <c r="G150" s="20">
+      <c r="H150" s="20">
         <v>7.8</v>
       </c>
-      <c r="H150" s="20">
+      <c r="I150" s="20">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I150" s="20">
+      <c r="J150" s="20">
         <v>7.1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B151" s="18">
         <v>42521</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D151" s="19">
+      <c r="C151" s="20">
+        <v>5.4083333333328483</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151" s="19">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E151" s="19">
+      <c r="F151" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F151" s="19">
+      <c r="G151" s="19">
         <v>0.03</v>
       </c>
-      <c r="G151" s="20">
+      <c r="H151" s="20">
         <v>20.9</v>
       </c>
-      <c r="H151" s="20">
+      <c r="I151" s="20">
         <v>7</v>
       </c>
-      <c r="I151" s="20">
+      <c r="J151" s="20">
         <v>6.6</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B152" s="18">
         <v>42533</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D152" s="19">
+      <c r="C152" s="20">
+        <v>3.8458333333328483</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" s="19">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="E152" s="19">
+      <c r="F152" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F152" s="19">
+      <c r="G152" s="19">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G152" s="20">
+      <c r="H152" s="20">
         <v>7.5</v>
-      </c>
-      <c r="H152" s="20">
-        <v>8.5</v>
       </c>
       <c r="I152" s="20">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" s="20">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B153" s="18">
         <v>42549</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D153" s="19">
+      <c r="C153" s="20">
+        <v>13.332638888889051</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="19">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E153" s="19">
+      <c r="F153" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F153" s="19">
+      <c r="G153" s="19">
         <v>1.6E-2</v>
       </c>
-      <c r="G153" s="20">
+      <c r="H153" s="20">
         <v>7.2</v>
-      </c>
-      <c r="H153" s="20">
-        <v>9.6999999999999993</v>
       </c>
       <c r="I153" s="20">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" s="20">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B154" s="18">
         <v>42563</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D154" s="19">
+      <c r="C154" s="20">
+        <v>11.609722222223354</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="19">
         <v>2.7E-2</v>
       </c>
-      <c r="E154" s="19">
+      <c r="F154" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F154" s="19">
+      <c r="G154" s="19">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G154" s="20">
+      <c r="H154" s="20">
         <v>18.899999999999999</v>
       </c>
-      <c r="H154" s="20">
+      <c r="I154" s="20">
         <v>9</v>
       </c>
-      <c r="I154" s="20">
+      <c r="J154" s="20">
         <v>8.9</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B155" s="18">
         <v>42577</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D155" s="19">
+      <c r="C155" s="20">
+        <v>2.1597222222262644</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E155" s="19">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E155" s="19">
+      <c r="F155" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F155" s="19">
+      <c r="G155" s="19">
         <v>1.9E-2</v>
       </c>
-      <c r="G155" s="20">
+      <c r="H155" s="20">
         <v>14.6</v>
       </c>
-      <c r="H155" s="20">
+      <c r="I155" s="20">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I155" s="20">
+      <c r="J155" s="20">
         <v>9.1</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B156" s="18">
         <v>42591</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D156" s="19">
+      <c r="C156" s="20">
+        <v>12.682638888887595</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="19">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E156" s="19">
+      <c r="F156" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F156" s="19">
+      <c r="G156" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G156" s="20">
+      <c r="H156" s="20">
         <v>11.4</v>
       </c>
-      <c r="H156" s="20">
+      <c r="I156" s="20">
         <v>8.6</v>
       </c>
-      <c r="I156" s="20">
+      <c r="J156" s="20">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B157" s="18">
         <v>42608</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D157" s="19">
+      <c r="C157" s="20">
+        <v>13.738888888889051</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" s="19">
         <v>1.2E-2</v>
       </c>
-      <c r="E157" s="19">
+      <c r="F157" s="19">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F157" s="19">
+      <c r="G157" s="19">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G157" s="20">
+      <c r="H157" s="20">
         <v>5.6</v>
       </c>
-      <c r="H157" s="20">
+      <c r="I157" s="20">
         <v>6.7</v>
       </c>
-      <c r="I157" s="20">
+      <c r="J157" s="20">
         <v>6.4</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B158" s="18">
         <v>42622</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" s="19">
+      <c r="C158" s="20">
+        <v>6.8631944444423425</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E158" s="19">
+      <c r="F158" s="19">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F158" s="19">
+      <c r="G158" s="19">
         <v>0.124</v>
       </c>
-      <c r="G158" s="20">
+      <c r="H158" s="20">
         <v>24.9</v>
       </c>
-      <c r="H158" s="20">
+      <c r="I158" s="20">
         <v>2.1</v>
       </c>
-      <c r="I158" s="20">
+      <c r="J158" s="20">
         <v>3.3</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B159" s="18">
         <v>42650</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D159" s="19">
+      <c r="C159" s="20">
+        <v>3.6437500000029104</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" s="19">
         <v>2E-3</v>
       </c>
-      <c r="E159" s="19">
+      <c r="F159" s="19">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F159" s="19">
+      <c r="G159" s="19">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="G159" s="20">
+      <c r="H159" s="20">
         <v>29.7</v>
       </c>
-      <c r="H159" s="20">
-        <v>6</v>
-      </c>
       <c r="I159" s="20">
+        <v>6</v>
+      </c>
+      <c r="J159" s="20">
         <v>5.4</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B160" s="18">
         <v>42665</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D160" s="19">
+      <c r="C160" s="20">
+        <v>5.8548611111109494</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="19">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E160" s="19">
+      <c r="F160" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F160" s="19">
+      <c r="G160" s="19">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="G160" s="20">
+      <c r="H160" s="20">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H160" s="20">
+      <c r="I160" s="20">
         <v>9</v>
       </c>
-      <c r="I160" s="20">
+      <c r="J160" s="20">
         <v>8.1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B161" s="18">
         <v>42678</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D161" s="19">
+      <c r="C161" s="20">
+        <v>2.9388888888861402</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" s="19">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E161" s="19">
+      <c r="F161" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F161" s="19">
+      <c r="G161" s="19">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="G161" s="20">
+      <c r="H161" s="20">
         <v>18.899999999999999</v>
       </c>
-      <c r="H161" s="20">
+      <c r="I161" s="20">
         <v>5.2</v>
       </c>
-      <c r="I161" s="20">
+      <c r="J161" s="20">
         <v>5.8</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B162" s="18">
         <v>42692</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D162" s="19">
+      <c r="C162" s="20">
+        <v>22.748611111106584</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" s="19">
         <v>0.01</v>
       </c>
-      <c r="E162" s="19">
+      <c r="F162" s="19">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F162" s="19">
+      <c r="G162" s="19">
         <v>0.84599999999999997</v>
       </c>
-      <c r="G162" s="20">
+      <c r="H162" s="20">
         <v>19.7</v>
       </c>
-      <c r="H162" s="20">
+      <c r="I162" s="20">
         <v>5</v>
       </c>
-      <c r="I162" s="20">
+      <c r="J162" s="20">
         <v>5.6</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B163" s="18">
         <v>42817</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D163" s="19">
+      <c r="C163" s="20">
+        <v>5.4736111111124046</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" s="19">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E163" s="19">
+      <c r="F163" s="19">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F163" s="19">
+      <c r="G163" s="19">
         <v>2.7E-2</v>
       </c>
-      <c r="G163" s="20">
+      <c r="H163" s="20">
         <v>1.2</v>
       </c>
-      <c r="H163" s="20">
+      <c r="I163" s="20">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I163" s="20">
+      <c r="J163" s="20">
         <v>14.7</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B164" s="18">
         <v>42831</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D164" s="19">
+      <c r="C164" s="20">
+        <v>2.8055555555620231</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="19">
         <v>3.1E-2</v>
       </c>
-      <c r="E164" s="19">
+      <c r="F164" s="19">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F164" s="19">
+      <c r="G164" s="19">
         <v>3.1E-2</v>
       </c>
-      <c r="G164" s="20">
+      <c r="H164" s="20">
         <v>14</v>
       </c>
-      <c r="H164" s="20">
+      <c r="I164" s="20">
         <v>10.9</v>
       </c>
-      <c r="I164" s="20">
+      <c r="J164" s="20">
         <v>12.8</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B165" s="18">
         <v>42845</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D165" s="19">
+      <c r="C165" s="20">
+        <v>14.756249999998545</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="19">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="E165" s="19">
+      <c r="F165" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F165" s="19">
+      <c r="G165" s="19">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G165" s="20">
+      <c r="H165" s="20">
         <v>2.4</v>
       </c>
-      <c r="H165" s="20">
+      <c r="I165" s="20">
         <v>10.6</v>
       </c>
-      <c r="I165" s="20">
+      <c r="J165" s="20">
         <v>14.8</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B166" s="18">
         <v>42859</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D166" s="19">
+      <c r="C166" s="20">
+        <v>12.077777777776646</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" s="19">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="E166" s="19">
+      <c r="F166" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F166" s="19">
+      <c r="G166" s="19">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G166" s="20">
+      <c r="H166" s="20">
         <v>5</v>
       </c>
-      <c r="H166" s="20">
+      <c r="I166" s="20">
         <v>10.6</v>
       </c>
-      <c r="I166" s="20">
+      <c r="J166" s="20">
         <v>15.1</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B167" s="18">
         <v>42872</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D167" s="19">
+      <c r="C167" s="20">
+        <v>13.386805555557657</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" s="19">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E167" s="19">
+      <c r="F167" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F167" s="19">
+      <c r="G167" s="19">
         <v>0.20699999999999999</v>
       </c>
-      <c r="G167" s="20">
+      <c r="H167" s="20">
         <v>114.2</v>
       </c>
-      <c r="H167" s="20">
+      <c r="I167" s="20">
         <v>7.2</v>
       </c>
-      <c r="I167" s="20">
+      <c r="J167" s="20">
         <v>12.4</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B168" s="18">
         <v>42886</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D168" s="19">
+      <c r="C168" s="20">
+        <v>12.328472222223354</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168" s="19">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="E168" s="19">
+      <c r="F168" s="19">
         <v>1.2E-2</v>
       </c>
-      <c r="F168" s="19">
+      <c r="G168" s="19">
         <v>0.11700000000000001</v>
       </c>
-      <c r="G168" s="20">
+      <c r="H168" s="20">
         <v>169.3</v>
       </c>
-      <c r="H168" s="20">
+      <c r="I168" s="20">
         <v>11.5</v>
       </c>
-      <c r="I168" s="20">
+      <c r="J168" s="20">
         <v>19.2</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B169" s="18">
         <v>42900</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D169" s="19">
+      <c r="C169" s="20">
+        <v>1.5909722222204437</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" s="19">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="E169" s="19">
+      <c r="F169" s="19">
         <v>2.3E-2</v>
       </c>
-      <c r="F169" s="19">
+      <c r="G169" s="19">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="G169" s="20">
+      <c r="H169" s="20">
         <v>4.7</v>
       </c>
-      <c r="H169" s="20">
+      <c r="I169" s="20">
         <v>13.1</v>
       </c>
-      <c r="I169" s="20">
+      <c r="J169" s="20">
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B170" s="18">
         <v>42915</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D170" s="19">
+      <c r="C170" s="20">
+        <v>10.570833333331393</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="19">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="E170" s="19">
+      <c r="F170" s="19">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F170" s="19">
+      <c r="G170" s="19">
         <v>2.7E-2</v>
       </c>
-      <c r="G170" s="20">
+      <c r="H170" s="20">
         <v>12.4</v>
       </c>
-      <c r="H170" s="20">
+      <c r="I170" s="20">
         <v>7.7</v>
       </c>
-      <c r="I170" s="20">
+      <c r="J170" s="20">
         <v>6.7</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B171" s="18">
         <v>42928</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D171" s="19">
+      <c r="C171" s="20">
+        <v>13.583333333335759</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" s="19">
         <v>1.2E-2</v>
       </c>
-      <c r="E171" s="19">
+      <c r="F171" s="19">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F171" s="19">
+      <c r="G171" s="19">
         <v>1.9E-2</v>
       </c>
-      <c r="G171" s="20">
+      <c r="H171" s="20">
         <v>5.6</v>
       </c>
-      <c r="H171" s="20">
+      <c r="I171" s="20">
         <v>10.4</v>
       </c>
-      <c r="I171" s="20">
+      <c r="J171" s="20">
         <v>7.7</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B172" s="18">
         <v>42944</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D172" s="19">
+      <c r="C172" s="20">
+        <v>14.142361111109494</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" s="19">
         <v>0.01</v>
       </c>
-      <c r="E172" s="19">
+      <c r="F172" s="19">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F172" s="19">
+      <c r="G172" s="19">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G172" s="20">
+      <c r="H172" s="20">
         <v>12.8</v>
       </c>
-      <c r="H172" s="20">
+      <c r="I172" s="20">
         <v>9.6</v>
       </c>
-      <c r="I172" s="20">
+      <c r="J172" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B173" s="18">
         <v>42956</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D173" s="19">
+      <c r="C173" s="20">
+        <v>7.4215277777839219</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" s="19">
         <v>0.01</v>
       </c>
-      <c r="E173" s="19">
+      <c r="F173" s="19">
         <v>0.114</v>
       </c>
-      <c r="F173" s="19">
+      <c r="G173" s="19">
         <v>0.39600000000000002</v>
       </c>
-      <c r="G173" s="20">
+      <c r="H173" s="20">
         <v>17.600000000000001</v>
       </c>
-      <c r="H173" s="20">
+      <c r="I173" s="20">
         <v>0</v>
       </c>
-      <c r="I173" s="20">
+      <c r="J173" s="20">
         <v>2.1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B174" s="18">
         <v>42972</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D174" s="19">
+      <c r="C174" s="20">
+        <v>0.94444444444525288</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" s="19">
         <v>0.01</v>
       </c>
-      <c r="E174" s="19">
+      <c r="F174" s="19">
         <v>0.30099999999999999</v>
       </c>
-      <c r="F174" s="19">
+      <c r="G174" s="19">
         <v>1.0469999999999999</v>
       </c>
-      <c r="G174" s="20">
+      <c r="H174" s="20">
         <v>50.8</v>
       </c>
-      <c r="H174" s="20">
+      <c r="I174" s="20">
         <v>0</v>
       </c>
-      <c r="I174" s="20">
+      <c r="J174" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B175" s="18">
         <v>42985</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D175" s="19">
+      <c r="C175" s="20">
+        <v>3.9812499999970896</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" s="19">
         <v>0.01</v>
       </c>
-      <c r="E175" s="19">
+      <c r="F175" s="19">
         <v>0.29399999999999998</v>
       </c>
-      <c r="F175" s="19">
+      <c r="G175" s="19">
         <v>0.55900000000000005</v>
       </c>
-      <c r="G175" s="20">
+      <c r="H175" s="20">
         <v>15</v>
       </c>
-      <c r="H175" s="20">
+      <c r="I175" s="20">
         <v>0.1</v>
       </c>
-      <c r="I175" s="20">
+      <c r="J175" s="20">
         <v>0.9</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B176" s="18">
         <v>43017</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D176" s="19">
+      <c r="C176" s="20">
+        <v>3.1750000000029104</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176" s="19">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="E176" s="19">
+      <c r="F176" s="19">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="F176" s="19">
+      <c r="G176" s="19">
         <v>0.03</v>
       </c>
-      <c r="G176" s="20">
+      <c r="H176" s="20">
         <v>0.5</v>
       </c>
-      <c r="H176" s="20">
+      <c r="I176" s="20">
         <v>9.1</v>
       </c>
-      <c r="I176" s="20">
+      <c r="J176" s="20">
         <v>7.6</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B177" s="18">
         <v>43027</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D177" s="19">
+      <c r="C177" s="20">
+        <v>1.8777777777722804</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" s="19">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E177" s="19">
+      <c r="F177" s="19">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="F177" s="19">
+      <c r="G177" s="19">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="G177" s="20">
+      <c r="H177" s="20">
         <v>1.3</v>
       </c>
-      <c r="H177" s="20">
+      <c r="I177" s="20">
         <v>8</v>
       </c>
-      <c r="I177" s="20">
+      <c r="J177" s="20">
         <v>7.1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B178" s="18">
         <v>43045</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D178" s="19">
+      <c r="C178" s="20">
+        <v>13</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="19">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E178" s="19">
+      <c r="F178" s="19">
         <v>2.3E-2</v>
       </c>
-      <c r="F178" s="19">
+      <c r="G178" s="19">
         <v>0.14599999999999999</v>
       </c>
-      <c r="G178" s="20">
+      <c r="H178" s="20">
         <v>2</v>
       </c>
-      <c r="H178" s="20">
+      <c r="I178" s="20">
         <v>8.1</v>
       </c>
-      <c r="I178" s="20">
+      <c r="J178" s="20">
         <v>9.1</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B179" s="18">
         <v>43054</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D179" s="19">
+      <c r="C179" s="20">
+        <v>0.19027777777955635</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="19">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E179" s="19">
+      <c r="F179" s="19">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F179" s="19">
+      <c r="G179" s="19">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="G179" s="20">
+      <c r="H179" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H179" s="20">
+      <c r="I179" s="20">
         <v>7.6</v>
       </c>
-      <c r="I179" s="20">
+      <c r="J179" s="20">
         <v>7.2</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B180" s="18">
         <v>43186</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D180" s="19">
+      <c r="C180" s="20">
+        <v>17</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="19">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E180" s="19">
+      <c r="F180" s="19">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F180" s="19">
+      <c r="G180" s="19">
         <v>0.03</v>
       </c>
-      <c r="G180" s="20">
+      <c r="H180" s="20">
         <v>2</v>
       </c>
-      <c r="H180" s="20">
+      <c r="I180" s="20">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I180" s="20">
+      <c r="J180" s="20">
         <v>8.6</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B181" s="18">
         <v>43195</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D181" s="19">
+      <c r="C181" s="20">
+        <v>8</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" s="19">
         <v>1.2E-2</v>
       </c>
-      <c r="E181" s="19">
+      <c r="F181" s="19">
         <v>1.9E-2</v>
       </c>
-      <c r="F181" s="19">
+      <c r="G181" s="19">
         <v>1.4E-2</v>
       </c>
-      <c r="G181" s="20">
+      <c r="H181" s="20">
         <v>2</v>
       </c>
-      <c r="H181" s="20">
+      <c r="I181" s="20">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I181" s="20">
+      <c r="J181" s="20">
         <v>8.5</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B182" s="18">
         <v>43201</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D182" s="19">
+      <c r="C182" s="20">
+        <v>5.9993055555532919</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" s="19">
         <v>1.4E-2</v>
       </c>
-      <c r="E182" s="19">
+      <c r="F182" s="19">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F182" s="19">
+      <c r="G182" s="19">
         <v>1.9E-2</v>
       </c>
-      <c r="G182" s="20">
+      <c r="H182" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H182" s="20">
+      <c r="I182" s="20">
         <v>8.9</v>
       </c>
-      <c r="I182" s="20">
+      <c r="J182" s="20">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B183" s="18">
         <v>43213</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D183" s="19">
+      <c r="C183" s="20">
+        <v>11.875</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E183" s="19">
         <v>1.4E-2</v>
       </c>
-      <c r="E183" s="19">
+      <c r="F183" s="19">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F183" s="19">
+      <c r="G183" s="19">
         <v>1.4E-2</v>
       </c>
-      <c r="G183" s="20">
+      <c r="H183" s="20">
         <v>3.9</v>
       </c>
-      <c r="H183" s="20">
+      <c r="I183" s="20">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I183" s="20">
+      <c r="J183" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B184" s="18">
         <v>43227</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D184" s="19">
+      <c r="C184" s="20">
+        <v>9.414583333338669</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E184" s="19">
         <v>2.3E-2</v>
       </c>
-      <c r="E184" s="19">
+      <c r="F184" s="19">
         <v>1.2E-2</v>
       </c>
-      <c r="F184" s="19">
+      <c r="G184" s="19">
         <v>3.9E-2</v>
       </c>
-      <c r="G184" s="20">
+      <c r="H184" s="20">
         <v>4.8</v>
       </c>
-      <c r="H184" s="20">
+      <c r="I184" s="20">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I184" s="20">
+      <c r="J184" s="20">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B185" s="18">
         <v>43243</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D185" s="19">
+      <c r="C185" s="20">
+        <v>15.890277777776646</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E185" s="19">
         <v>0.03</v>
       </c>
-      <c r="E185" s="19">
+      <c r="F185" s="19">
         <v>0.108</v>
       </c>
-      <c r="F185" s="19">
+      <c r="G185" s="19">
         <v>0.17399999999999999</v>
       </c>
-      <c r="G185" s="20">
+      <c r="H185" s="20">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H185" s="20">
+      <c r="I185" s="20">
         <v>7.2</v>
       </c>
-      <c r="I185" s="20">
+      <c r="J185" s="20">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B186" s="18">
         <v>43257</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D186" s="19">
+      <c r="C186" s="20">
+        <v>10.65625</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186" s="19">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E186" s="19">
+      <c r="F186" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F186" s="19">
+      <c r="G186" s="19">
         <v>0.04</v>
       </c>
-      <c r="G186" s="20">
+      <c r="H186" s="20">
         <v>11.1</v>
       </c>
-      <c r="H186" s="20">
+      <c r="I186" s="20">
         <v>8</v>
       </c>
-      <c r="I186" s="20">
+      <c r="J186" s="20">
         <v>9.6</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B187" s="18">
         <v>43271</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D187" s="19">
+      <c r="C187" s="20">
+        <v>4.8305555555489263</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E187" s="19">
         <v>3.9E-2</v>
       </c>
-      <c r="E187" s="19">
+      <c r="F187" s="19">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F187" s="19">
+      <c r="G187" s="19">
         <v>0.112</v>
       </c>
-      <c r="G187" s="20">
+      <c r="H187" s="20">
         <v>50.2</v>
       </c>
-      <c r="H187" s="20">
+      <c r="I187" s="20">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I187" s="20">
+      <c r="J187" s="20">
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B188" s="18">
         <v>43278</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D188" s="19">
+      <c r="C188" s="20">
+        <v>5.3611111111167702</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188" s="19">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E188" s="19">
+      <c r="F188" s="19">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F188" s="19">
+      <c r="G188" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G188" s="20">
+      <c r="H188" s="20">
         <v>0.5</v>
       </c>
-      <c r="H188" s="20">
+      <c r="I188" s="20">
         <v>14.4</v>
       </c>
-      <c r="I188" s="20">
+      <c r="J188" s="20">
         <v>14.8</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B189" s="18">
         <v>43283</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D189" s="19">
+      <c r="C189" s="20">
+        <v>2.429861111115315</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E189" s="19">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="E189" s="19">
+      <c r="F189" s="19">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F189" s="19">
+      <c r="G189" s="19">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="G189" s="20">
+      <c r="H189" s="20">
         <v>34.1</v>
       </c>
-      <c r="H189" s="20">
+      <c r="I189" s="20">
         <v>10.4</v>
       </c>
-      <c r="I189" s="20">
+      <c r="J189" s="20">
         <v>10.9</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B190" s="18">
         <v>43299</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D190" s="19">
+      <c r="C190" s="20">
+        <v>4.8291666666700621</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E190" s="19">
         <v>0.02</v>
       </c>
-      <c r="E190" s="19">
+      <c r="F190" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F190" s="19">
+      <c r="G190" s="19">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G190" s="20">
+      <c r="H190" s="20">
         <v>11.7</v>
       </c>
-      <c r="H190" s="20">
+      <c r="I190" s="20">
         <v>10.6</v>
       </c>
-      <c r="I190" s="20">
+      <c r="J190" s="20">
         <v>11.7</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B191" s="18">
         <v>43313</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D191" s="19">
+      <c r="C191" s="20">
+        <v>15.539583333331393</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E191" s="19">
         <v>1.2E-2</v>
       </c>
-      <c r="E191" s="19">
+      <c r="F191" s="19">
         <v>2.7E-2</v>
       </c>
-      <c r="F191" s="19">
+      <c r="G191" s="19">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G191" s="20">
+      <c r="H191" s="20">
         <v>17.600000000000001</v>
       </c>
-      <c r="H191" s="20">
+      <c r="I191" s="20">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I191" s="20">
+      <c r="J191" s="20">
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B192" s="18">
         <v>43327</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D192" s="19">
+      <c r="C192" s="20">
+        <v>12.596527777779556</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E192" s="19">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E192" s="19">
+      <c r="F192" s="19">
         <v>2.3E-2</v>
       </c>
-      <c r="F192" s="19">
+      <c r="G192" s="19">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G192" s="20">
+      <c r="H192" s="20">
         <v>25.7</v>
       </c>
-      <c r="H192" s="20">
+      <c r="I192" s="20">
         <v>7.5</v>
       </c>
-      <c r="I192" s="20">
+      <c r="J192" s="20">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B193" s="18">
         <v>43340</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D193" s="19">
+      <c r="C193" s="20">
+        <v>8.2083333333357587</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E193" s="19">
         <v>1.2E-2</v>
       </c>
-      <c r="E193" s="19">
+      <c r="F193" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F193" s="19">
+      <c r="G193" s="19">
         <v>1.4E-2</v>
       </c>
-      <c r="G193" s="20">
+      <c r="H193" s="20">
         <v>8.6</v>
       </c>
-      <c r="H193" s="20">
+      <c r="I193" s="20">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I193" s="20">
+      <c r="J193" s="20">
         <v>9.9</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B194" s="18">
         <v>43354</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D194" s="19">
+      <c r="C194" s="20">
+        <v>5.8041666666686069</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194" s="19">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E194" s="19">
+      <c r="F194" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F194" s="19">
+      <c r="G194" s="19">
         <v>0.02</v>
       </c>
-      <c r="G194" s="20">
+      <c r="H194" s="20">
         <v>10.7</v>
       </c>
-      <c r="H194" s="20">
+      <c r="I194" s="20">
         <v>10.3</v>
       </c>
-      <c r="I194" s="20">
+      <c r="J194" s="20">
         <v>8.9</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B195" s="18">
         <v>43369</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D195" s="19">
+      <c r="C195" s="20">
+        <v>4.6437500000029104</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E195" s="19">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E195" s="19">
+      <c r="F195" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F195" s="19">
+      <c r="G195" s="19">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G195" s="20">
+      <c r="H195" s="20">
         <v>10.7</v>
       </c>
-      <c r="H195" s="20">
+      <c r="I195" s="20">
         <v>7.2</v>
       </c>
-      <c r="I195" s="20">
+      <c r="J195" s="20">
         <v>7.8</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B196" s="18">
         <v>43384</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D196" s="19">
+      <c r="C196" s="20">
+        <v>2.6034722222248092</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196" s="19">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E196" s="19">
+      <c r="F196" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F196" s="19">
+      <c r="G196" s="19">
         <v>1.4E-2</v>
       </c>
-      <c r="G196" s="20">
+      <c r="H196" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H196" s="20">
+      <c r="I196" s="20">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I196" s="20">
+      <c r="J196" s="20">
         <v>9.1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B197" s="18">
         <v>43396</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D197" s="19">
+      <c r="C197" s="20">
+        <v>8.7770833333343035</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197" s="19">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E197" s="19">
+      <c r="F197" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F197" s="19">
+      <c r="G197" s="19">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G197" s="20">
+      <c r="H197" s="20">
         <v>76.8</v>
       </c>
-      <c r="H197" s="20">
+      <c r="I197" s="20">
         <v>7.8</v>
       </c>
-      <c r="I197" s="20">
+      <c r="J197" s="20">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B198" s="18">
         <v>43403</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D198" s="19">
+      <c r="C198" s="20">
+        <v>3.2124999999941792</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E198" s="19">
         <v>2.4E-2</v>
       </c>
-      <c r="E198" s="19">
+      <c r="F198" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F198" s="19">
+      <c r="G198" s="19">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G198" s="20">
+      <c r="H198" s="20">
         <v>26.2</v>
       </c>
-      <c r="H198" s="20">
+      <c r="I198" s="20">
         <v>7.5</v>
       </c>
-      <c r="I198" s="20">
+      <c r="J198" s="20">
         <v>7.8</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B199" s="18">
         <v>43418</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D199" s="19">
+      <c r="C199" s="20">
+        <v>4.7916666666642413</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E199" s="19">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E199" s="19">
+      <c r="F199" s="19">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F199" s="19">
+      <c r="G199" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G199" s="20">
+      <c r="H199" s="20">
         <v>199.4</v>
       </c>
-      <c r="H199" s="20">
+      <c r="I199" s="20">
         <v>6.4</v>
       </c>
-      <c r="I199" s="20">
+      <c r="J199" s="20">
         <v>7.9</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B200" s="18">
         <v>42166</v>
       </c>
-      <c r="C200" s="6" t="s">
+      <c r="C200" s="20">
+        <v>3.5430555555576575</v>
+      </c>
+      <c r="D200" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D200" s="19">
+      <c r="E200" s="19">
         <v>0.10299999999999999</v>
       </c>
-      <c r="E200" s="19">
+      <c r="F200" s="19">
         <v>0.316</v>
       </c>
-      <c r="F200" s="19">
+      <c r="G200" s="19">
         <v>0.35199999999999998</v>
       </c>
-      <c r="G200" s="20">
+      <c r="H200" s="20">
         <v>35.700000000000003</v>
       </c>
-      <c r="H200" s="20">
+      <c r="I200" s="20">
         <v>7.9</v>
       </c>
-      <c r="I200" s="20">
+      <c r="J200" s="20">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B201" s="18">
         <v>42200</v>
       </c>
-      <c r="C201" s="6" t="s">
+      <c r="C201" s="20">
+        <v>11.893749999995634</v>
+      </c>
+      <c r="D201" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D201" s="19">
+      <c r="E201" s="19">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E201" s="19">
+      <c r="F201" s="19">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="F201" s="19">
+      <c r="G201" s="19">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="G201" s="20">
+      <c r="H201" s="20">
         <v>74.7</v>
       </c>
-      <c r="H201" s="20">
+      <c r="I201" s="20">
         <v>1.8</v>
       </c>
-      <c r="I201" s="20">
+      <c r="J201" s="20">
         <v>4.3</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B202" s="18">
         <v>42233</v>
       </c>
-      <c r="C202" s="6" t="s">
+      <c r="C202" s="20">
+        <v>6.53125</v>
+      </c>
+      <c r="D202" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D202" s="19">
+      <c r="E202" s="19">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E202" s="19">
+      <c r="F202" s="19">
         <v>5.5E-2</v>
       </c>
-      <c r="F202" s="19">
+      <c r="G202" s="19">
         <v>0.154</v>
       </c>
-      <c r="G202" s="20">
+      <c r="H202" s="20">
         <v>17</v>
       </c>
-      <c r="H202" s="20">
+      <c r="I202" s="20">
         <v>3.4</v>
       </c>
-      <c r="I202" s="20">
+      <c r="J202" s="20">
         <v>4.5</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B203" s="18">
         <v>42238</v>
       </c>
-      <c r="C203" s="6" t="s">
+      <c r="C203" s="20">
+        <v>14.722916666665697</v>
+      </c>
+      <c r="D203" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D203" s="19">
+      <c r="E203" s="19">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="E203" s="19">
+      <c r="F203" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F203" s="19">
+      <c r="G203" s="19">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="G203" s="20">
+      <c r="H203" s="20">
         <v>11.3</v>
       </c>
-      <c r="H203" s="20">
+      <c r="I203" s="20">
         <v>5.6</v>
       </c>
-      <c r="I203" s="20">
+      <c r="J203" s="20">
         <v>6.7</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B204" s="18">
         <v>42244</v>
       </c>
-      <c r="C204" s="6" t="s">
+      <c r="C204" s="20"/>
+      <c r="D204" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D204" s="19">
+      <c r="E204" s="19">
         <v>0.254</v>
       </c>
-      <c r="E204" s="19">
+      <c r="F204" s="19">
         <v>0.10199999999999999</v>
       </c>
-      <c r="F204" s="19">
+      <c r="G204" s="19">
         <v>0.23499999999999999</v>
       </c>
-      <c r="G204" s="20">
+      <c r="H204" s="20">
         <v>42.1</v>
       </c>
-      <c r="H204" s="20">
+      <c r="I204" s="20">
         <v>4.2</v>
       </c>
-      <c r="I204" s="20">
+      <c r="J204" s="20">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B205" s="18">
         <v>42277</v>
       </c>
-      <c r="C205" s="6" t="s">
+      <c r="C205" s="20"/>
+      <c r="D205" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D205" s="19">
+      <c r="E205" s="19">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="E205" s="19">
+      <c r="F205" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F205" s="19">
+      <c r="G205" s="19">
         <v>2E-3</v>
       </c>
-      <c r="G205" s="20">
+      <c r="H205" s="20">
         <v>0.5</v>
       </c>
-      <c r="H205" s="20">
+      <c r="I205" s="20">
         <v>10.9</v>
       </c>
-      <c r="I205" s="20">
+      <c r="J205" s="20">
         <v>13.3</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B206" s="18">
         <v>42301</v>
       </c>
-      <c r="C206" s="6" t="s">
+      <c r="C206" s="20"/>
+      <c r="D206" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D206" s="19">
+      <c r="E206" s="19">
         <v>0.03</v>
       </c>
-      <c r="E206" s="19">
+      <c r="F206" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F206" s="19">
+      <c r="G206" s="19">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G206" s="20">
+      <c r="H206" s="20">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H206" s="20">
+      <c r="I206" s="20">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I206" s="20">
+      <c r="J206" s="20">
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B207" s="18">
         <v>42305</v>
       </c>
-      <c r="C207" s="6" t="s">
+      <c r="C207" s="20"/>
+      <c r="D207" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D207" s="19">
+      <c r="E207" s="19">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="E207" s="19">
+      <c r="F207" s="19">
         <v>2E-3</v>
       </c>
-      <c r="F207" s="19">
+      <c r="G207" s="19">
         <v>1.6E-2</v>
       </c>
-      <c r="G207" s="20">
+      <c r="H207" s="20">
         <v>2.5</v>
       </c>
-      <c r="H207" s="20">
+      <c r="I207" s="20">
         <v>10.4</v>
       </c>
-      <c r="I207" s="20">
+      <c r="J207" s="20">
         <v>11.6</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B208" s="18">
         <v>42320</v>
       </c>
-      <c r="C208" s="6" t="s">
+      <c r="C208" s="20"/>
+      <c r="D208" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D208" s="19">
+      <c r="E208" s="19">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="E208" s="19">
+      <c r="F208" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F208" s="19">
+      <c r="G208" s="19">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G208" s="20">
+      <c r="H208" s="20">
         <v>4.8</v>
       </c>
-      <c r="H208" s="20">
+      <c r="I208" s="20">
         <v>12.5</v>
       </c>
-      <c r="I208" s="20">
+      <c r="J208" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B209" s="18">
         <v>42325</v>
       </c>
-      <c r="C209" s="6" t="s">
+      <c r="C209" s="20"/>
+      <c r="D209" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D209" s="19">
+      <c r="E209" s="19">
         <v>0.109</v>
       </c>
-      <c r="E209" s="19">
+      <c r="F209" s="19">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F209" s="19">
+      <c r="G209" s="19">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="G209" s="20">
+      <c r="H209" s="20">
         <v>39</v>
       </c>
-      <c r="H209" s="20">
+      <c r="I209" s="20">
         <v>11</v>
       </c>
-      <c r="I209" s="20">
+      <c r="J209" s="20">
         <v>9.5</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B210" s="18">
         <v>42326</v>
       </c>
-      <c r="C210" s="6" t="s">
+      <c r="C210" s="20"/>
+      <c r="D210" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D210" s="19">
+      <c r="E210" s="19">
         <v>0.127</v>
       </c>
-      <c r="E210" s="19">
+      <c r="F210" s="19">
         <v>2.4E-2</v>
       </c>
-      <c r="F210" s="19">
+      <c r="G210" s="19">
         <v>0.22900000000000001</v>
       </c>
-      <c r="G210" s="20">
+      <c r="H210" s="20">
         <v>43.9</v>
       </c>
-      <c r="H210" s="20">
+      <c r="I210" s="20">
         <v>10.199999999999999</v>
       </c>
-      <c r="I210" s="20">
+      <c r="J210" s="20">
         <v>10.8</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B211" s="18">
         <v>42479</v>
       </c>
-      <c r="C211" s="6" t="s">
+      <c r="C211" s="20">
+        <v>2.8374999999941792</v>
+      </c>
+      <c r="D211" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D211" s="19">
+      <c r="E211" s="19">
         <v>3.9E-2</v>
       </c>
-      <c r="E211" s="19">
+      <c r="F211" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F211" s="19">
+      <c r="G211" s="19">
         <v>1.6E-2</v>
       </c>
-      <c r="G211" s="20">
+      <c r="H211" s="20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H211" s="20">
+      <c r="I211" s="20">
         <v>9.6</v>
       </c>
-      <c r="I211" s="20">
+      <c r="J211" s="20">
         <v>7.8</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B212" s="18">
         <v>42485</v>
       </c>
-      <c r="C212" s="6" t="s">
+      <c r="C212" s="20">
+        <v>5.6006944444452529</v>
+      </c>
+      <c r="D212" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D212" s="19">
+      <c r="E212" s="19">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="E212" s="19">
+      <c r="F212" s="19">
         <v>0.02</v>
       </c>
-      <c r="F212" s="19">
+      <c r="G212" s="19">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="G212" s="20">
+      <c r="H212" s="20">
         <v>22.9</v>
       </c>
-      <c r="H212" s="20">
+      <c r="I212" s="20">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I212" s="20">
+      <c r="J212" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B213" s="18">
         <v>42490</v>
       </c>
-      <c r="C213" s="6" t="s">
+      <c r="C213" s="20">
+        <v>1.2784722222204437</v>
+      </c>
+      <c r="D213" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D213" s="19">
+      <c r="E213" s="19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E213" s="19">
+      <c r="F213" s="19">
         <v>0.14299999999999999</v>
       </c>
-      <c r="F213" s="19">
+      <c r="G213" s="19">
         <v>0.36</v>
       </c>
-      <c r="G213" s="20">
+      <c r="H213" s="20">
         <v>108</v>
       </c>
-      <c r="H213" s="20">
+      <c r="I213" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I213" s="20">
+      <c r="J213" s="20">
         <v>7.8</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B214" s="18">
         <v>42500</v>
       </c>
-      <c r="C214" s="6" t="s">
+      <c r="C214" s="20">
+        <v>3.8291666666700621</v>
+      </c>
+      <c r="D214" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D214" s="19">
+      <c r="E214" s="19">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="E214" s="19">
+      <c r="F214" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F214" s="19">
+      <c r="G214" s="19">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G214" s="20">
+      <c r="H214" s="20">
         <v>9.9</v>
       </c>
-      <c r="H214" s="20">
+      <c r="I214" s="20">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I214" s="20">
+      <c r="J214" s="20">
         <v>7.7</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B215" s="18">
         <v>42517</v>
       </c>
-      <c r="C215" s="6" t="s">
+      <c r="C215" s="20">
+        <v>2.827777777776646</v>
+      </c>
+      <c r="D215" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D215" s="19">
+      <c r="E215" s="19">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E215" s="19">
+      <c r="F215" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F215" s="19">
+      <c r="G215" s="19">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G215" s="20">
+      <c r="H215" s="20">
         <v>10.7</v>
-      </c>
-      <c r="H215" s="20">
-        <v>11.6</v>
       </c>
       <c r="I215" s="20">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J215" s="20">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B216" s="18">
         <v>42520</v>
       </c>
-      <c r="C216" s="6" t="s">
+      <c r="C216" s="20">
+        <v>1.8951388888890506</v>
+      </c>
+      <c r="D216" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D216" s="19">
+      <c r="E216" s="19">
         <v>0.03</v>
       </c>
-      <c r="E216" s="19">
+      <c r="F216" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F216" s="19">
+      <c r="G216" s="19">
         <v>2.3E-2</v>
       </c>
-      <c r="G216" s="20">
+      <c r="H216" s="20">
         <v>1</v>
       </c>
-      <c r="H216" s="20">
+      <c r="I216" s="20">
         <v>12.5</v>
       </c>
-      <c r="I216" s="20">
+      <c r="J216" s="20">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B217" s="18">
         <v>42535</v>
       </c>
-      <c r="C217" s="6" t="s">
+      <c r="C217" s="20">
+        <v>0.59583333333284827</v>
+      </c>
+      <c r="D217" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D217" s="19">
+      <c r="E217" s="19">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="E217" s="19">
+      <c r="F217" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F217" s="19">
+      <c r="G217" s="19">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="G217" s="20">
+      <c r="H217" s="20">
         <v>26.9</v>
       </c>
-      <c r="H217" s="20">
+      <c r="I217" s="20">
         <v>10.7</v>
       </c>
-      <c r="I217" s="20">
+      <c r="J217" s="20">
         <v>11.2</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B218" s="18">
         <v>42571</v>
       </c>
-      <c r="C218" s="6" t="s">
+      <c r="C218" s="20">
+        <v>2.4930555555547471</v>
+      </c>
+      <c r="D218" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D218" s="19">
+      <c r="E218" s="19">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E218" s="19">
+      <c r="F218" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F218" s="19">
+      <c r="G218" s="19">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="G218" s="20">
+      <c r="H218" s="20">
         <v>20.100000000000001</v>
       </c>
-      <c r="H218" s="20">
+      <c r="I218" s="20">
         <v>9.1</v>
       </c>
-      <c r="I218" s="20">
+      <c r="J218" s="20">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B219" s="18">
         <v>42583</v>
       </c>
-      <c r="C219" s="6" t="s">
+      <c r="C219" s="20">
+        <v>1.8465277777722804</v>
+      </c>
+      <c r="D219" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D219" s="19">
+      <c r="E219" s="19">
         <v>0.09</v>
       </c>
-      <c r="E219" s="19">
+      <c r="F219" s="19">
         <v>1E-3</v>
       </c>
-      <c r="F219" s="19">
+      <c r="G219" s="19">
         <v>4.7E-2</v>
       </c>
-      <c r="G219" s="20">
+      <c r="H219" s="20">
         <v>17</v>
       </c>
-      <c r="H219" s="20">
+      <c r="I219" s="20">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I219" s="20">
+      <c r="J219" s="20">
         <v>9.4</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B220" s="18">
         <v>42584</v>
       </c>
-      <c r="C220" s="6" t="s">
+      <c r="C220" s="20">
+        <v>1.7347222222160781</v>
+      </c>
+      <c r="D220" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D220" s="19">
+      <c r="E220" s="19">
         <v>0.111</v>
       </c>
-      <c r="E220" s="19">
+      <c r="F220" s="19">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F220" s="19">
+      <c r="G220" s="19">
         <v>0.126</v>
       </c>
-      <c r="G220" s="20">
+      <c r="H220" s="20">
         <v>8.9</v>
       </c>
-      <c r="H220" s="20">
+      <c r="I220" s="20">
         <v>9.4</v>
       </c>
-      <c r="I220" s="20">
+      <c r="J220" s="20">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B221" s="18">
         <v>42592</v>
       </c>
-      <c r="C221" s="6" t="s">
+      <c r="C221" s="20">
+        <v>2.6118055555562023</v>
+      </c>
+      <c r="D221" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D221" s="19">
+      <c r="E221" s="19">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="E221" s="19">
+      <c r="F221" s="19">
         <v>0.11700000000000001</v>
       </c>
-      <c r="F221" s="19">
+      <c r="G221" s="19">
         <v>0.22</v>
       </c>
-      <c r="G221" s="20">
+      <c r="H221" s="20">
         <v>56</v>
       </c>
-      <c r="H221" s="20">
+      <c r="I221" s="20">
         <v>3.5</v>
       </c>
-      <c r="I221" s="20">
+      <c r="J221" s="20">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B222" s="18">
         <v>42629</v>
       </c>
-      <c r="C222" s="6" t="s">
+      <c r="C222" s="20">
+        <v>7.4104166666656965</v>
+      </c>
+      <c r="D222" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D222" s="19">
+      <c r="E222" s="19">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="E222" s="19">
+      <c r="F222" s="19">
         <v>1.6E-2</v>
       </c>
-      <c r="F222" s="19">
+      <c r="G222" s="19">
         <v>3.9E-2</v>
       </c>
-      <c r="G222" s="20">
+      <c r="H222" s="20">
         <v>8</v>
       </c>
-      <c r="H222" s="20">
+      <c r="I222" s="20">
         <v>7.8</v>
       </c>
-      <c r="I222" s="20">
+      <c r="J222" s="20">
         <v>6.2</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B223" s="18">
         <v>42637</v>
       </c>
-      <c r="C223" s="6" t="s">
+      <c r="C223" s="20">
+        <v>4.4347222222204437</v>
+      </c>
+      <c r="D223" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D223" s="19">
+      <c r="E223" s="19">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="E223" s="19">
+      <c r="F223" s="19">
         <v>2.3E-2</v>
       </c>
-      <c r="F223" s="19">
+      <c r="G223" s="19">
         <v>0.21199999999999999</v>
       </c>
-      <c r="G223" s="20">
+      <c r="H223" s="20">
         <v>12.3</v>
       </c>
-      <c r="H223" s="20">
+      <c r="I223" s="20">
         <v>8.4</v>
       </c>
-      <c r="I223" s="20">
+      <c r="J223" s="20">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B224" s="18">
         <v>42649</v>
       </c>
-      <c r="C224" s="6" t="s">
+      <c r="C224" s="20">
+        <v>2.3354166666686069</v>
+      </c>
+      <c r="D224" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D224" s="19">
+      <c r="E224" s="19">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E224" s="19">
+      <c r="F224" s="19">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F224" s="19">
+      <c r="G224" s="19">
         <v>0.03</v>
       </c>
-      <c r="G224" s="20">
+      <c r="H224" s="20">
         <v>0.5</v>
       </c>
-      <c r="H224" s="20">
+      <c r="I224" s="20">
         <v>10</v>
       </c>
-      <c r="I224" s="20">
+      <c r="J224" s="20">
         <v>9.6</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B225" s="18">
         <v>42824</v>
       </c>
-      <c r="C225" s="6" t="s">
+      <c r="C225" s="20">
+        <v>3.6736111111094942</v>
+      </c>
+      <c r="D225" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D225" s="19">
+      <c r="E225" s="19">
         <v>2.7E-2</v>
       </c>
-      <c r="E225" s="19">
+      <c r="F225" s="19">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F225" s="19">
+      <c r="G225" s="19">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="G225" s="20">
+      <c r="H225" s="20">
         <v>22</v>
       </c>
-      <c r="H225" s="20">
+      <c r="I225" s="20">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I225" s="20">
+      <c r="J225" s="20">
         <v>10.5</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B226" s="18">
         <v>42841</v>
       </c>
-      <c r="C226" s="6" t="s">
+      <c r="C226" s="20">
+        <v>2.265972222223354</v>
+      </c>
+      <c r="D226" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D226" s="19">
+      <c r="E226" s="19">
         <v>0.108</v>
       </c>
-      <c r="E226" s="19">
+      <c r="F226" s="19">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F226" s="19">
+      <c r="G226" s="19">
         <v>1.6E-2</v>
       </c>
-      <c r="G226" s="20">
+      <c r="H226" s="20">
         <v>3.5</v>
       </c>
-      <c r="H226" s="20">
+      <c r="I226" s="20">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I226" s="20">
+      <c r="J226" s="20">
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B227" s="18">
         <v>42844</v>
       </c>
-      <c r="C227" s="6" t="s">
+      <c r="C227" s="20">
+        <v>0.78819444444525288</v>
+      </c>
+      <c r="D227" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D227" s="19">
+      <c r="E227" s="19">
         <v>0.14799999999999999</v>
       </c>
-      <c r="E227" s="19">
+      <c r="F227" s="19">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F227" s="19">
+      <c r="G227" s="19">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G227" s="20">
+      <c r="H227" s="20">
         <v>8.9</v>
       </c>
-      <c r="H227" s="20">
+      <c r="I227" s="20">
         <v>9.9</v>
       </c>
-      <c r="I227" s="20">
+      <c r="J227" s="20">
         <v>18.3</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B228" s="18">
         <v>42856</v>
       </c>
-      <c r="C228" s="6" t="s">
+      <c r="C228" s="20">
+        <v>3.1875</v>
+      </c>
+      <c r="D228" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D228" s="19">
+      <c r="E228" s="19">
         <v>0.13900000000000001</v>
       </c>
-      <c r="E228" s="19">
+      <c r="F228" s="19">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F228" s="19">
+      <c r="G228" s="19">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="G228" s="20">
+      <c r="H228" s="20">
         <v>12.9</v>
       </c>
-      <c r="H228" s="20">
+      <c r="I228" s="20">
         <v>10.7</v>
       </c>
-      <c r="I228" s="20">
+      <c r="J228" s="20">
         <v>15.8</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B229" s="18">
         <v>42874</v>
       </c>
-      <c r="C229" s="6" t="s">
+      <c r="C229" s="20">
+        <v>1.1118055555562023</v>
+      </c>
+      <c r="D229" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D229" s="19">
+      <c r="E229" s="19">
         <v>0.21299999999999999</v>
       </c>
-      <c r="E229" s="19">
+      <c r="F229" s="19">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F229" s="19">
+      <c r="G229" s="19">
         <v>0.36599999999999999</v>
       </c>
-      <c r="G229" s="20">
+      <c r="H229" s="20">
         <v>201.7</v>
       </c>
-      <c r="H229" s="20">
+      <c r="I229" s="20">
         <v>9.9</v>
       </c>
-      <c r="I229" s="20">
+      <c r="J229" s="20">
         <v>20.7</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B230" s="18">
         <v>43015</v>
       </c>
-      <c r="C230" s="6" t="s">
+      <c r="C230" s="20">
+        <v>1.9569444444423425</v>
+      </c>
+      <c r="D230" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D230" s="19">
+      <c r="E230" s="19">
         <v>0.155</v>
       </c>
-      <c r="E230" s="19">
+      <c r="F230" s="19">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="F230" s="19">
+      <c r="G230" s="19">
         <v>0.16200000000000001</v>
       </c>
-      <c r="G230" s="20">
+      <c r="H230" s="20">
         <v>24.5</v>
       </c>
-      <c r="H230" s="20">
+      <c r="I230" s="20">
         <v>4.8</v>
       </c>
-      <c r="I230" s="20">
+      <c r="J230" s="20">
         <v>4.2</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B231" s="18">
         <v>43224</v>
       </c>
-      <c r="C231" s="6" t="s">
+      <c r="C231" s="20">
+        <v>3.3340277777751908</v>
+      </c>
+      <c r="D231" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D231" s="19">
+      <c r="E231" s="19">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E231" s="19">
+      <c r="F231" s="19">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F231" s="19">
+      <c r="G231" s="19">
         <v>0.107</v>
       </c>
-      <c r="G231" s="20">
+      <c r="H231" s="20">
         <v>5.6</v>
       </c>
-      <c r="H231" s="20">
+      <c r="I231" s="20">
         <v>8.5</v>
       </c>
-      <c r="I231" s="20">
+      <c r="J231" s="20">
         <v>8.9</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B232" s="18">
         <v>43262</v>
       </c>
-      <c r="C232" s="6" t="s">
+      <c r="C232" s="20">
+        <v>1.9930555555547471</v>
+      </c>
+      <c r="D232" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D232" s="19">
+      <c r="E232" s="19">
         <v>0.29599999999999999</v>
       </c>
-      <c r="E232" s="19">
+      <c r="F232" s="19">
         <v>0.156</v>
       </c>
-      <c r="F232" s="19">
+      <c r="G232" s="19">
         <v>0.51300000000000001</v>
       </c>
-      <c r="G232" s="20">
+      <c r="H232" s="20">
         <v>298.7</v>
       </c>
-      <c r="H232" s="20">
+      <c r="I232" s="20">
         <v>7</v>
       </c>
-      <c r="I232" s="20">
+      <c r="J232" s="20">
         <v>11.2</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B233" s="18">
         <v>43270</v>
       </c>
-      <c r="C233" s="6" t="s">
+      <c r="C233" s="20">
+        <v>1.554861111115315</v>
+      </c>
+      <c r="D233" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D233" s="19">
+      <c r="E233" s="19">
         <v>0.39500000000000002</v>
       </c>
-      <c r="E233" s="19">
+      <c r="F233" s="19">
         <v>0.124</v>
       </c>
-      <c r="F233" s="19">
+      <c r="G233" s="19">
         <v>0.35</v>
       </c>
-      <c r="G233" s="20">
+      <c r="H233" s="20">
         <v>137.69999999999999</v>
       </c>
-      <c r="H233" s="20">
+      <c r="I233" s="20">
         <v>5.8</v>
       </c>
-      <c r="I233" s="20">
+      <c r="J233" s="20">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B234" s="18">
         <v>43272</v>
       </c>
-      <c r="C234" s="6" t="s">
+      <c r="C234" s="20">
+        <v>1.4000000000014552</v>
+      </c>
+      <c r="D234" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D234" s="19">
+      <c r="E234" s="19">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E234" s="19">
+      <c r="F234" s="19">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="F234" s="19">
+      <c r="G234" s="19">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="G234" s="20">
+      <c r="H234" s="20">
         <v>21.7</v>
       </c>
-      <c r="H234" s="20">
+      <c r="I234" s="20">
         <v>13.6</v>
       </c>
-      <c r="I234" s="20">
+      <c r="J234" s="20">
         <v>13.8</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B235" s="18">
         <v>43274</v>
       </c>
-      <c r="C235" s="6" t="s">
+      <c r="C235" s="20">
+        <v>0.86666666666860692</v>
+      </c>
+      <c r="D235" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D235" s="19">
+      <c r="E235" s="19">
         <v>0.55500000000000005</v>
       </c>
-      <c r="E235" s="19">
+      <c r="F235" s="19">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F235" s="19">
+      <c r="G235" s="19">
         <v>1.5349999999999999</v>
       </c>
-      <c r="G235" s="20">
+      <c r="H235" s="20">
         <v>2284.4</v>
       </c>
-      <c r="H235" s="20">
+      <c r="I235" s="20">
         <v>1.8</v>
       </c>
-      <c r="I235" s="20">
+      <c r="J235" s="20">
         <v>18.7</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B236" s="18">
         <v>43332</v>
       </c>
-      <c r="C236" s="6" t="s">
+      <c r="C236" s="20">
+        <v>1.9708333333328483</v>
+      </c>
+      <c r="D236" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D236" s="19">
+      <c r="E236" s="19">
         <v>0.21199999999999999</v>
       </c>
-      <c r="E236" s="19">
+      <c r="F236" s="19">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="F236" s="19">
+      <c r="G236" s="19">
         <v>0.16300000000000001</v>
       </c>
-      <c r="G236" s="20">
+      <c r="H236" s="20">
         <v>37.200000000000003</v>
       </c>
-      <c r="H236" s="20">
+      <c r="I236" s="20">
         <v>4.3</v>
       </c>
-      <c r="I236" s="20">
+      <c r="J236" s="20">
         <v>5.4</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B237" s="18">
         <v>43341</v>
       </c>
-      <c r="C237" s="6" t="s">
+      <c r="C237" s="20">
+        <v>2.4618055555547471</v>
+      </c>
+      <c r="D237" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D237" s="19">
+      <c r="E237" s="19">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="E237" s="19">
+      <c r="F237" s="19">
         <v>2.4E-2</v>
       </c>
-      <c r="F237" s="19">
+      <c r="G237" s="19">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="G237" s="20">
+      <c r="H237" s="20">
         <v>43.9</v>
       </c>
-      <c r="H237" s="20">
+      <c r="I237" s="20">
         <v>7.6</v>
       </c>
-      <c r="I237" s="20">
+      <c r="J237" s="20">
         <v>7.7</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B238" s="18">
         <v>42252</v>
       </c>
-      <c r="C238" s="6" t="s">
+      <c r="C238" s="20">
+        <v>3.8548611111109494</v>
+      </c>
+      <c r="D238" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D238" s="19">
+      <c r="E238" s="19">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="E238" s="19">
+      <c r="F238" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F238" s="19">
+      <c r="G238" s="19">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G238" s="20">
+      <c r="H238" s="20">
         <v>23.8</v>
       </c>
-      <c r="H238" s="20">
+      <c r="I238" s="20">
         <v>7.8</v>
       </c>
-      <c r="I238" s="20">
+      <c r="J238" s="20">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B239" s="18">
         <v>43362</v>
       </c>
-      <c r="C239" s="6" t="s">
+      <c r="C239" s="20">
+        <v>2.617361111115315</v>
+      </c>
+      <c r="D239" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D239" s="19">
+      <c r="E239" s="19">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E239" s="19">
+      <c r="F239" s="19">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F239" s="19">
+      <c r="G239" s="19">
         <v>0.03</v>
       </c>
-      <c r="G239" s="20">
+      <c r="H239" s="20">
         <v>23.9</v>
       </c>
-      <c r="H239" s="20">
+      <c r="I239" s="20">
         <v>7.7</v>
       </c>
-      <c r="I239" s="20">
+      <c r="J239" s="20">
         <v>7.8</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B240" s="18">
         <v>43374</v>
       </c>
-      <c r="C240" s="6" t="s">
+      <c r="C240" s="20">
+        <v>3.1972222222248092</v>
+      </c>
+      <c r="D240" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D240" s="19">
+      <c r="E240" s="19">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="E240" s="19">
+      <c r="F240" s="19">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F240" s="19">
+      <c r="G240" s="19">
         <v>2.3E-2</v>
-      </c>
-      <c r="G240" s="20">
-        <v>8.1999999999999993</v>
       </c>
       <c r="H240" s="20">
         <v>8.1999999999999993</v>
       </c>
       <c r="I240" s="20">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J240" s="20">
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B241" s="18">
         <v>43382</v>
       </c>
-      <c r="C241" s="6" t="s">
+      <c r="C241" s="20">
+        <v>3.2291666666642413</v>
+      </c>
+      <c r="D241" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D241" s="19">
+      <c r="E241" s="19">
         <v>0.127</v>
       </c>
-      <c r="E241" s="19">
+      <c r="F241" s="19">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F241" s="19">
+      <c r="G241" s="19">
         <v>0.04</v>
       </c>
-      <c r="G241" s="20">
+      <c r="H241" s="20">
         <v>14.5</v>
       </c>
-      <c r="H241" s="20">
+      <c r="I241" s="20">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I241" s="20">
+      <c r="J241" s="20">
         <v>8.8000000000000007</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N241" xr:uid="{EDA08B41-4A09-4BE8-8580-247CF2DB0472}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Sub12"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <dateGroupItem year="2018" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
